--- a/Stimuli/DepthMaps/depths.xlsx
+++ b/Stimuli/DepthMaps/depths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F4CC16-3FC4-4D53-AD4F-099D22421B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF8AC37-329D-4924-A15D-AA16C94574A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="histogram" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="179">
   <si>
     <t>apple</t>
   </si>
@@ -586,6 +586,18 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>scrambled</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>stereopair</t>
+  </si>
+  <si>
+    <t>depthmap</t>
   </si>
 </sst>
 </file>
@@ -973,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1026,12 +1038,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1041,10 +1054,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2736,7 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D578D86-D93F-4507-92E5-98F2DF597463}">
   <dimension ref="A1:BA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
@@ -2942,28 +2951,28 @@
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
-      <c r="Y2" s="59" t="s">
+      <c r="Y2" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
       <c r="AD2" s="45"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="62" t="s">
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="56" t="s">
         <v>172</v>
       </c>
       <c r="AS2" s="22"/>
@@ -2977,7 +2986,7 @@
       <c r="BA2" s="22"/>
     </row>
     <row r="3" spans="1:53" ht="15" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="48">
@@ -3049,64 +3058,64 @@
       <c r="X3">
         <v>1425</v>
       </c>
-      <c r="Y3" s="60">
+      <c r="Y3" s="55">
         <v>1530</v>
       </c>
-      <c r="Z3" s="55">
+      <c r="Z3" s="53">
         <v>1665</v>
       </c>
-      <c r="AA3" s="55">
+      <c r="AA3" s="53">
         <v>1995</v>
       </c>
-      <c r="AB3" s="55">
+      <c r="AB3" s="53">
         <v>2901</v>
       </c>
-      <c r="AC3" s="55">
+      <c r="AC3" s="53">
         <v>2952</v>
       </c>
-      <c r="AD3" s="55">
+      <c r="AD3" s="53">
         <v>3507</v>
       </c>
-      <c r="AE3" s="55">
+      <c r="AE3" s="53">
         <v>2973</v>
       </c>
-      <c r="AF3" s="55">
+      <c r="AF3" s="53">
         <v>1524</v>
       </c>
-      <c r="AG3" s="55">
+      <c r="AG3" s="53">
         <v>795</v>
       </c>
-      <c r="AH3" s="55">
+      <c r="AH3" s="53">
         <v>1392</v>
       </c>
-      <c r="AI3" s="55">
+      <c r="AI3" s="53">
         <v>4260</v>
       </c>
-      <c r="AJ3" s="55">
+      <c r="AJ3" s="53">
         <v>9852</v>
       </c>
-      <c r="AK3" s="55">
+      <c r="AK3" s="53">
         <v>19605</v>
       </c>
-      <c r="AL3" s="55">
+      <c r="AL3" s="53">
         <v>40107</v>
       </c>
-      <c r="AM3" s="55">
+      <c r="AM3" s="53">
         <v>42897</v>
       </c>
-      <c r="AN3" s="55">
+      <c r="AN3" s="53">
         <v>52353</v>
       </c>
-      <c r="AO3" s="55">
+      <c r="AO3" s="53">
         <v>80643</v>
       </c>
-      <c r="AP3" s="55">
+      <c r="AP3" s="53">
         <v>91590</v>
       </c>
-      <c r="AQ3" s="55">
+      <c r="AQ3" s="53">
         <v>84933</v>
       </c>
-      <c r="AR3" s="62">
+      <c r="AR3" s="56">
         <v>858</v>
       </c>
       <c r="AS3">
@@ -3138,7 +3147,7 @@
       </c>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="19">
         <v>2</v>
       </c>
@@ -3211,58 +3220,58 @@
       <c r="Y4" s="46">
         <v>195</v>
       </c>
-      <c r="Z4" s="53">
+      <c r="Z4" s="45">
         <v>216</v>
       </c>
-      <c r="AA4" s="53">
+      <c r="AA4" s="45">
         <v>660</v>
       </c>
-      <c r="AB4" s="53">
+      <c r="AB4" s="45">
         <v>1215</v>
       </c>
-      <c r="AC4" s="53">
+      <c r="AC4" s="45">
         <v>1524</v>
       </c>
-      <c r="AD4" s="53">
+      <c r="AD4" s="45">
         <v>2235</v>
       </c>
-      <c r="AE4" s="53">
+      <c r="AE4" s="45">
         <v>3273</v>
       </c>
-      <c r="AF4" s="53">
+      <c r="AF4" s="45">
         <v>3840</v>
       </c>
-      <c r="AG4" s="53">
+      <c r="AG4" s="45">
         <v>4797</v>
       </c>
-      <c r="AH4" s="53">
+      <c r="AH4" s="45">
         <v>6084</v>
       </c>
-      <c r="AI4" s="53">
+      <c r="AI4" s="45">
         <v>6663</v>
       </c>
-      <c r="AJ4" s="53">
+      <c r="AJ4" s="45">
         <v>8232</v>
       </c>
-      <c r="AK4" s="53">
+      <c r="AK4" s="45">
         <v>10416</v>
       </c>
-      <c r="AL4" s="53">
+      <c r="AL4" s="45">
         <v>20016</v>
       </c>
-      <c r="AM4" s="53">
+      <c r="AM4" s="45">
         <v>29313</v>
       </c>
-      <c r="AN4" s="53">
+      <c r="AN4" s="45">
         <v>61314</v>
       </c>
-      <c r="AO4" s="53">
+      <c r="AO4" s="45">
         <v>134529</v>
       </c>
-      <c r="AP4" s="53">
+      <c r="AP4" s="45">
         <v>198522</v>
       </c>
-      <c r="AQ4" s="53">
+      <c r="AQ4" s="45">
         <v>43485</v>
       </c>
       <c r="AR4" s="47">
@@ -3297,7 +3306,7 @@
       </c>
     </row>
     <row r="5" spans="1:53">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="19">
         <v>3</v>
       </c>
@@ -3370,58 +3379,58 @@
       <c r="Y5" s="46">
         <v>69</v>
       </c>
-      <c r="Z5" s="53">
+      <c r="Z5" s="45">
         <v>27</v>
       </c>
-      <c r="AA5" s="53">
+      <c r="AA5" s="45">
         <v>45</v>
       </c>
-      <c r="AB5" s="53">
+      <c r="AB5" s="45">
         <v>369</v>
       </c>
-      <c r="AC5" s="53">
+      <c r="AC5" s="45">
         <v>900</v>
       </c>
-      <c r="AD5" s="53">
+      <c r="AD5" s="45">
         <v>2007</v>
       </c>
-      <c r="AE5" s="53">
+      <c r="AE5" s="45">
         <v>10185</v>
       </c>
-      <c r="AF5" s="53">
+      <c r="AF5" s="45">
         <v>19884</v>
       </c>
-      <c r="AG5" s="53">
+      <c r="AG5" s="45">
         <v>27591</v>
       </c>
-      <c r="AH5" s="53">
+      <c r="AH5" s="45">
         <v>38193</v>
       </c>
-      <c r="AI5" s="53">
+      <c r="AI5" s="45">
         <v>39960</v>
       </c>
-      <c r="AJ5" s="53">
+      <c r="AJ5" s="45">
         <v>50376</v>
       </c>
-      <c r="AK5" s="53">
+      <c r="AK5" s="45">
         <v>53457</v>
       </c>
-      <c r="AL5" s="53">
+      <c r="AL5" s="45">
         <v>83187</v>
       </c>
-      <c r="AM5" s="53">
+      <c r="AM5" s="45">
         <v>87684</v>
       </c>
-      <c r="AN5" s="53">
+      <c r="AN5" s="45">
         <v>96792</v>
       </c>
-      <c r="AO5" s="53">
+      <c r="AO5" s="45">
         <v>115146</v>
       </c>
-      <c r="AP5" s="53">
+      <c r="AP5" s="45">
         <v>102303</v>
       </c>
-      <c r="AQ5" s="53">
+      <c r="AQ5" s="45">
         <v>62847</v>
       </c>
       <c r="AR5" s="47">
@@ -3456,7 +3465,7 @@
       </c>
     </row>
     <row r="6" spans="1:53">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="19">
         <v>4</v>
       </c>
@@ -3529,58 +3538,58 @@
       <c r="Y6" s="46">
         <v>0</v>
       </c>
-      <c r="Z6" s="53">
+      <c r="Z6" s="45">
         <v>33</v>
       </c>
-      <c r="AA6" s="53">
+      <c r="AA6" s="45">
         <v>273</v>
       </c>
-      <c r="AB6" s="53">
+      <c r="AB6" s="45">
         <v>789</v>
       </c>
-      <c r="AC6" s="53">
+      <c r="AC6" s="45">
         <v>1251</v>
       </c>
-      <c r="AD6" s="53">
+      <c r="AD6" s="45">
         <v>2646</v>
       </c>
-      <c r="AE6" s="53">
+      <c r="AE6" s="45">
         <v>3183</v>
       </c>
-      <c r="AF6" s="53">
+      <c r="AF6" s="45">
         <v>2985</v>
       </c>
-      <c r="AG6" s="53">
+      <c r="AG6" s="45">
         <v>3042</v>
       </c>
-      <c r="AH6" s="53">
+      <c r="AH6" s="45">
         <v>4125</v>
       </c>
-      <c r="AI6" s="53">
+      <c r="AI6" s="45">
         <v>4116</v>
       </c>
-      <c r="AJ6" s="53">
+      <c r="AJ6" s="45">
         <v>6744</v>
       </c>
-      <c r="AK6" s="53">
+      <c r="AK6" s="45">
         <v>13401</v>
       </c>
-      <c r="AL6" s="53">
+      <c r="AL6" s="45">
         <v>22899</v>
       </c>
-      <c r="AM6" s="53">
+      <c r="AM6" s="45">
         <v>27789</v>
       </c>
-      <c r="AN6" s="53">
+      <c r="AN6" s="45">
         <v>48195</v>
       </c>
-      <c r="AO6" s="53">
+      <c r="AO6" s="45">
         <v>72021</v>
       </c>
-      <c r="AP6" s="53">
+      <c r="AP6" s="45">
         <v>82953</v>
       </c>
-      <c r="AQ6" s="53">
+      <c r="AQ6" s="45">
         <v>60855</v>
       </c>
       <c r="AR6" s="47">
@@ -3615,7 +3624,7 @@
       </c>
     </row>
     <row r="7" spans="1:53">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="19">
         <v>6</v>
       </c>
@@ -3688,58 +3697,58 @@
       <c r="Y7" s="46">
         <v>4143</v>
       </c>
-      <c r="Z7" s="53">
+      <c r="Z7" s="45">
         <v>4605</v>
       </c>
-      <c r="AA7" s="53">
+      <c r="AA7" s="45">
         <v>5592</v>
       </c>
-      <c r="AB7" s="53">
+      <c r="AB7" s="45">
         <v>8994</v>
       </c>
-      <c r="AC7" s="53">
+      <c r="AC7" s="45">
         <v>9378</v>
       </c>
-      <c r="AD7" s="53">
+      <c r="AD7" s="45">
         <v>14685</v>
       </c>
-      <c r="AE7" s="53">
+      <c r="AE7" s="45">
         <v>13740</v>
       </c>
-      <c r="AF7" s="53">
+      <c r="AF7" s="45">
         <v>15867</v>
       </c>
-      <c r="AG7" s="53">
+      <c r="AG7" s="45">
         <v>19236</v>
       </c>
-      <c r="AH7" s="53">
+      <c r="AH7" s="45">
         <v>21837</v>
       </c>
-      <c r="AI7" s="53">
+      <c r="AI7" s="45">
         <v>22362</v>
       </c>
-      <c r="AJ7" s="53">
+      <c r="AJ7" s="45">
         <v>25977</v>
       </c>
-      <c r="AK7" s="53">
+      <c r="AK7" s="45">
         <v>32052</v>
       </c>
-      <c r="AL7" s="53">
+      <c r="AL7" s="45">
         <v>14775</v>
       </c>
-      <c r="AM7" s="53">
+      <c r="AM7" s="45">
         <v>13359</v>
       </c>
-      <c r="AN7" s="53">
+      <c r="AN7" s="45">
         <v>16686</v>
       </c>
-      <c r="AO7" s="53">
+      <c r="AO7" s="45">
         <v>15447</v>
       </c>
-      <c r="AP7" s="53">
+      <c r="AP7" s="45">
         <v>17835</v>
       </c>
-      <c r="AQ7" s="53">
+      <c r="AQ7" s="45">
         <v>24168</v>
       </c>
       <c r="AR7" s="47">
@@ -3774,7 +3783,7 @@
       </c>
     </row>
     <row r="8" spans="1:53">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="19">
         <v>7</v>
       </c>
@@ -3847,58 +3856,58 @@
       <c r="Y8" s="46">
         <v>783</v>
       </c>
-      <c r="Z8" s="53">
+      <c r="Z8" s="45">
         <v>945</v>
       </c>
-      <c r="AA8" s="53">
+      <c r="AA8" s="45">
         <v>1206</v>
       </c>
-      <c r="AB8" s="53">
+      <c r="AB8" s="45">
         <v>1938</v>
       </c>
-      <c r="AC8" s="53">
+      <c r="AC8" s="45">
         <v>2283</v>
       </c>
-      <c r="AD8" s="53">
+      <c r="AD8" s="45">
         <v>3138</v>
       </c>
-      <c r="AE8" s="53">
+      <c r="AE8" s="45">
         <v>4482</v>
       </c>
-      <c r="AF8" s="53">
+      <c r="AF8" s="45">
         <v>6726</v>
       </c>
-      <c r="AG8" s="53">
+      <c r="AG8" s="45">
         <v>10029</v>
       </c>
-      <c r="AH8" s="53">
+      <c r="AH8" s="45">
         <v>11541</v>
       </c>
-      <c r="AI8" s="53">
+      <c r="AI8" s="45">
         <v>13848</v>
       </c>
-      <c r="AJ8" s="53">
+      <c r="AJ8" s="45">
         <v>18030</v>
       </c>
-      <c r="AK8" s="53">
+      <c r="AK8" s="45">
         <v>23208</v>
       </c>
-      <c r="AL8" s="53">
+      <c r="AL8" s="45">
         <v>36228</v>
       </c>
-      <c r="AM8" s="53">
+      <c r="AM8" s="45">
         <v>41673</v>
       </c>
-      <c r="AN8" s="53">
+      <c r="AN8" s="45">
         <v>57783</v>
       </c>
-      <c r="AO8" s="53">
+      <c r="AO8" s="45">
         <v>85827</v>
       </c>
-      <c r="AP8" s="53">
+      <c r="AP8" s="45">
         <v>132150</v>
       </c>
-      <c r="AQ8" s="53">
+      <c r="AQ8" s="45">
         <v>189495</v>
       </c>
       <c r="AR8" s="47">
@@ -3933,7 +3942,7 @@
       </c>
     </row>
     <row r="9" spans="1:53">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="19">
         <v>8</v>
       </c>
@@ -4006,58 +4015,58 @@
       <c r="Y9" s="46">
         <v>726</v>
       </c>
-      <c r="Z9" s="53">
+      <c r="Z9" s="45">
         <v>663</v>
       </c>
-      <c r="AA9" s="53">
+      <c r="AA9" s="45">
         <v>522</v>
       </c>
-      <c r="AB9" s="53">
+      <c r="AB9" s="45">
         <v>690</v>
       </c>
-      <c r="AC9" s="53">
+      <c r="AC9" s="45">
         <v>654</v>
       </c>
-      <c r="AD9" s="53">
+      <c r="AD9" s="45">
         <v>519</v>
       </c>
-      <c r="AE9" s="53">
+      <c r="AE9" s="45">
         <v>552</v>
       </c>
-      <c r="AF9" s="53">
+      <c r="AF9" s="45">
         <v>681</v>
       </c>
-      <c r="AG9" s="53">
+      <c r="AG9" s="45">
         <v>687</v>
       </c>
-      <c r="AH9" s="53">
+      <c r="AH9" s="45">
         <v>1197</v>
       </c>
-      <c r="AI9" s="53">
+      <c r="AI9" s="45">
         <v>1818</v>
       </c>
-      <c r="AJ9" s="53">
+      <c r="AJ9" s="45">
         <v>2784</v>
       </c>
-      <c r="AK9" s="53">
+      <c r="AK9" s="45">
         <v>4257</v>
       </c>
-      <c r="AL9" s="53">
+      <c r="AL9" s="45">
         <v>9225</v>
       </c>
-      <c r="AM9" s="53">
+      <c r="AM9" s="45">
         <v>16671</v>
       </c>
-      <c r="AN9" s="53">
+      <c r="AN9" s="45">
         <v>36699</v>
       </c>
-      <c r="AO9" s="53">
+      <c r="AO9" s="45">
         <v>87156</v>
       </c>
-      <c r="AP9" s="53">
+      <c r="AP9" s="45">
         <v>153768</v>
       </c>
-      <c r="AQ9" s="53">
+      <c r="AQ9" s="45">
         <v>146343</v>
       </c>
       <c r="AR9" s="47">
@@ -4092,7 +4101,7 @@
       </c>
     </row>
     <row r="10" spans="1:53">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="19">
         <v>9</v>
       </c>
@@ -4165,58 +4174,58 @@
       <c r="Y10" s="46">
         <v>459</v>
       </c>
-      <c r="Z10" s="53">
+      <c r="Z10" s="45">
         <v>531</v>
       </c>
-      <c r="AA10" s="53">
+      <c r="AA10" s="45">
         <v>621</v>
       </c>
-      <c r="AB10" s="53">
+      <c r="AB10" s="45">
         <v>810</v>
       </c>
-      <c r="AC10" s="53">
+      <c r="AC10" s="45">
         <v>825</v>
       </c>
-      <c r="AD10" s="53">
+      <c r="AD10" s="45">
         <v>996</v>
       </c>
-      <c r="AE10" s="53">
+      <c r="AE10" s="45">
         <v>1167</v>
       </c>
-      <c r="AF10" s="53">
+      <c r="AF10" s="45">
         <v>1377</v>
       </c>
-      <c r="AG10" s="53">
+      <c r="AG10" s="45">
         <v>1572</v>
       </c>
-      <c r="AH10" s="53">
+      <c r="AH10" s="45">
         <v>1632</v>
       </c>
-      <c r="AI10" s="53">
+      <c r="AI10" s="45">
         <v>2193</v>
       </c>
-      <c r="AJ10" s="53">
+      <c r="AJ10" s="45">
         <v>3996</v>
       </c>
-      <c r="AK10" s="53">
+      <c r="AK10" s="45">
         <v>6504</v>
       </c>
-      <c r="AL10" s="53">
+      <c r="AL10" s="45">
         <v>15504</v>
       </c>
-      <c r="AM10" s="53">
+      <c r="AM10" s="45">
         <v>18927</v>
       </c>
-      <c r="AN10" s="53">
+      <c r="AN10" s="45">
         <v>14136</v>
       </c>
-      <c r="AO10" s="53">
+      <c r="AO10" s="45">
         <v>21051</v>
       </c>
-      <c r="AP10" s="53">
+      <c r="AP10" s="45">
         <v>54135</v>
       </c>
-      <c r="AQ10" s="53">
+      <c r="AQ10" s="45">
         <v>56430</v>
       </c>
       <c r="AR10" s="47">
@@ -4251,7 +4260,7 @@
       </c>
     </row>
     <row r="11" spans="1:53">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="19">
         <v>14</v>
       </c>
@@ -4324,58 +4333,58 @@
       <c r="Y11" s="46">
         <v>153</v>
       </c>
-      <c r="Z11" s="53">
+      <c r="Z11" s="45">
         <v>219</v>
       </c>
-      <c r="AA11" s="53">
+      <c r="AA11" s="45">
         <v>258</v>
       </c>
-      <c r="AB11" s="53">
+      <c r="AB11" s="45">
         <v>480</v>
       </c>
-      <c r="AC11" s="53">
+      <c r="AC11" s="45">
         <v>663</v>
       </c>
-      <c r="AD11" s="53">
+      <c r="AD11" s="45">
         <v>903</v>
       </c>
-      <c r="AE11" s="53">
+      <c r="AE11" s="45">
         <v>1116</v>
       </c>
-      <c r="AF11" s="53">
+      <c r="AF11" s="45">
         <v>1434</v>
       </c>
-      <c r="AG11" s="53">
+      <c r="AG11" s="45">
         <v>1749</v>
       </c>
-      <c r="AH11" s="53">
+      <c r="AH11" s="45">
         <v>2913</v>
       </c>
-      <c r="AI11" s="53">
+      <c r="AI11" s="45">
         <v>4491</v>
       </c>
-      <c r="AJ11" s="53">
+      <c r="AJ11" s="45">
         <v>7227</v>
       </c>
-      <c r="AK11" s="53">
+      <c r="AK11" s="45">
         <v>12756</v>
       </c>
-      <c r="AL11" s="53">
+      <c r="AL11" s="45">
         <v>28077</v>
       </c>
-      <c r="AM11" s="53">
+      <c r="AM11" s="45">
         <v>65586</v>
       </c>
-      <c r="AN11" s="53">
+      <c r="AN11" s="45">
         <v>107610</v>
       </c>
-      <c r="AO11" s="53">
+      <c r="AO11" s="45">
         <v>169998</v>
       </c>
-      <c r="AP11" s="53">
+      <c r="AP11" s="45">
         <v>156396</v>
       </c>
-      <c r="AQ11" s="53">
+      <c r="AQ11" s="45">
         <v>16059</v>
       </c>
       <c r="AR11" s="47">
@@ -4410,7 +4419,7 @@
       </c>
     </row>
     <row r="12" spans="1:53">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="19">
         <v>16</v>
       </c>
@@ -4483,58 +4492,58 @@
       <c r="Y12" s="46">
         <v>51</v>
       </c>
-      <c r="Z12" s="53">
+      <c r="Z12" s="45">
         <v>114</v>
       </c>
-      <c r="AA12" s="53">
+      <c r="AA12" s="45">
         <v>336</v>
       </c>
-      <c r="AB12" s="53">
+      <c r="AB12" s="45">
         <v>1041</v>
       </c>
-      <c r="AC12" s="53">
+      <c r="AC12" s="45">
         <v>1524</v>
       </c>
-      <c r="AD12" s="53">
+      <c r="AD12" s="45">
         <v>2340</v>
       </c>
-      <c r="AE12" s="53">
+      <c r="AE12" s="45">
         <v>4089</v>
       </c>
-      <c r="AF12" s="53">
+      <c r="AF12" s="45">
         <v>8661</v>
       </c>
-      <c r="AG12" s="53">
+      <c r="AG12" s="45">
         <v>6804</v>
       </c>
-      <c r="AH12" s="53">
+      <c r="AH12" s="45">
         <v>5556</v>
       </c>
-      <c r="AI12" s="53">
+      <c r="AI12" s="45">
         <v>8727</v>
       </c>
-      <c r="AJ12" s="53">
+      <c r="AJ12" s="45">
         <v>9624</v>
       </c>
-      <c r="AK12" s="53">
+      <c r="AK12" s="45">
         <v>13248</v>
       </c>
-      <c r="AL12" s="53">
+      <c r="AL12" s="45">
         <v>17871</v>
       </c>
-      <c r="AM12" s="53">
+      <c r="AM12" s="45">
         <v>41505</v>
       </c>
-      <c r="AN12" s="53">
+      <c r="AN12" s="45">
         <v>30234</v>
       </c>
-      <c r="AO12" s="53">
+      <c r="AO12" s="45">
         <v>29877</v>
       </c>
-      <c r="AP12" s="53">
+      <c r="AP12" s="45">
         <v>15603</v>
       </c>
-      <c r="AQ12" s="53">
+      <c r="AQ12" s="45">
         <v>9423</v>
       </c>
       <c r="AR12" s="47">
@@ -4569,7 +4578,7 @@
       </c>
     </row>
     <row r="13" spans="1:53">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="19">
         <v>17</v>
       </c>
@@ -4642,58 +4651,58 @@
       <c r="Y13" s="46">
         <v>705</v>
       </c>
-      <c r="Z13" s="53">
+      <c r="Z13" s="45">
         <v>543</v>
       </c>
-      <c r="AA13" s="53">
+      <c r="AA13" s="45">
         <v>645</v>
       </c>
-      <c r="AB13" s="53">
+      <c r="AB13" s="45">
         <v>969</v>
       </c>
-      <c r="AC13" s="53">
+      <c r="AC13" s="45">
         <v>1047</v>
       </c>
-      <c r="AD13" s="53">
+      <c r="AD13" s="45">
         <v>840</v>
       </c>
-      <c r="AE13" s="53">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="53">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="53">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="53">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="53">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="53">
+      <c r="AE13" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="45">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="45">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="45">
         <v>12</v>
       </c>
-      <c r="AK13" s="53">
+      <c r="AK13" s="45">
         <v>102</v>
       </c>
-      <c r="AL13" s="53">
+      <c r="AL13" s="45">
         <v>8031</v>
       </c>
-      <c r="AM13" s="53">
+      <c r="AM13" s="45">
         <v>12927</v>
       </c>
-      <c r="AN13" s="53">
+      <c r="AN13" s="45">
         <v>36036</v>
       </c>
-      <c r="AO13" s="53">
+      <c r="AO13" s="45">
         <v>80724</v>
       </c>
-      <c r="AP13" s="53">
+      <c r="AP13" s="45">
         <v>165849</v>
       </c>
-      <c r="AQ13" s="53">
+      <c r="AQ13" s="45">
         <v>190725</v>
       </c>
       <c r="AR13" s="47">
@@ -4728,7 +4737,7 @@
       </c>
     </row>
     <row r="14" spans="1:53">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="19">
         <v>18</v>
       </c>
@@ -4801,58 +4810,58 @@
       <c r="Y14" s="46">
         <v>1920</v>
       </c>
-      <c r="Z14" s="53">
+      <c r="Z14" s="45">
         <v>2055</v>
       </c>
-      <c r="AA14" s="53">
+      <c r="AA14" s="45">
         <v>2202</v>
       </c>
-      <c r="AB14" s="53">
+      <c r="AB14" s="45">
         <v>2805</v>
       </c>
-      <c r="AC14" s="53">
+      <c r="AC14" s="45">
         <v>2619</v>
       </c>
-      <c r="AD14" s="53">
+      <c r="AD14" s="45">
         <v>2883</v>
       </c>
-      <c r="AE14" s="53">
+      <c r="AE14" s="45">
         <v>3654</v>
       </c>
-      <c r="AF14" s="53">
+      <c r="AF14" s="45">
         <v>6594</v>
       </c>
-      <c r="AG14" s="53">
+      <c r="AG14" s="45">
         <v>9399</v>
       </c>
-      <c r="AH14" s="53">
+      <c r="AH14" s="45">
         <v>13488</v>
       </c>
-      <c r="AI14" s="53">
+      <c r="AI14" s="45">
         <v>23322</v>
       </c>
-      <c r="AJ14" s="53">
+      <c r="AJ14" s="45">
         <v>32865</v>
       </c>
-      <c r="AK14" s="53">
+      <c r="AK14" s="45">
         <v>20874</v>
       </c>
-      <c r="AL14" s="53">
+      <c r="AL14" s="45">
         <v>20634</v>
       </c>
-      <c r="AM14" s="53">
+      <c r="AM14" s="45">
         <v>19488</v>
       </c>
-      <c r="AN14" s="53">
+      <c r="AN14" s="45">
         <v>22491</v>
       </c>
-      <c r="AO14" s="53">
+      <c r="AO14" s="45">
         <v>24177</v>
       </c>
-      <c r="AP14" s="53">
+      <c r="AP14" s="45">
         <v>21012</v>
       </c>
-      <c r="AQ14" s="53">
+      <c r="AQ14" s="45">
         <v>14490</v>
       </c>
       <c r="AR14" s="47">
@@ -4887,7 +4896,7 @@
       </c>
     </row>
     <row r="15" spans="1:53">
-      <c r="A15" s="58"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="15">
         <v>19</v>
       </c>
@@ -5046,28 +5055,28 @@
       </c>
     </row>
     <row r="16" spans="1:53" s="4" customFormat="1">
-      <c r="A16" s="54"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="16"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="61"/>
-      <c r="AJ16" s="61"/>
-      <c r="AK16" s="61"/>
-      <c r="AL16" s="61"/>
-      <c r="AM16" s="61"/>
-      <c r="AN16" s="61"/>
-      <c r="AO16" s="61"/>
-      <c r="AP16" s="61"/>
-      <c r="AQ16" s="61"/>
-      <c r="AR16" s="52"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5079,10 +5088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
-  <dimension ref="A2:I79"/>
+  <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5095,7 +5104,7 @@
     <col min="6" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
@@ -5124,8 +5133,11 @@
         <f>AVERAGE(Table9[visible range])</f>
         <v>136.06099999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1">
+      <c r="K2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickTop="1">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -5149,8 +5161,11 @@
         <f t="shared" ref="G3:G15" si="0">F3-C3</f>
         <v>179.68</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
@@ -5175,7 +5190,7 @@
         <v>157.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
@@ -5200,7 +5215,7 @@
         <v>103.26</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
@@ -5224,8 +5239,11 @@
         <f t="shared" si="0"/>
         <v>128.85</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
@@ -5250,7 +5268,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
@@ -5274,8 +5292,11 @@
         <f t="shared" si="0"/>
         <v>124.35</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="31" t="s">
         <v>6</v>
       </c>
@@ -5299,8 +5320,11 @@
         <f t="shared" si="0"/>
         <v>128.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="31" t="s">
         <v>143</v>
       </c>
@@ -5324,8 +5348,11 @@
         <f t="shared" si="0"/>
         <v>112.93</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
@@ -5350,7 +5377,7 @@
         <v>113.06</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
@@ -5375,7 +5402,7 @@
         <v>212.12</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="31" t="s">
         <v>15</v>
       </c>
@@ -5399,8 +5426,11 @@
         <f t="shared" si="0"/>
         <v>166.15100000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="31" t="s">
         <v>17</v>
       </c>
@@ -5424,8 +5454,11 @@
         <f t="shared" si="0"/>
         <v>169.43</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
@@ -5449,8 +5482,11 @@
         <f t="shared" si="0"/>
         <v>59.991999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -5459,7 +5495,7 @@
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="37" t="s">
         <v>91</v>
       </c>
@@ -5483,10 +5519,16 @@
       </c>
       <c r="I17">
         <f>AVERAGE(Table2[visible range])</f>
-        <v>114.25034411764705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickTop="1">
+        <v>116.9800588235294</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickTop="1">
       <c r="A18" s="30" t="s">
         <v>33</v>
       </c>
@@ -5511,7 +5553,7 @@
         <v>81.344200000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
         <v>32</v>
       </c>
@@ -5536,7 +5578,7 @@
         <v>77.637799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
         <v>31</v>
       </c>
@@ -5561,7 +5603,7 @@
         <v>125.315</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
         <v>30</v>
       </c>
@@ -5586,7 +5628,7 @@
         <v>101.886</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
         <v>29</v>
       </c>
@@ -5611,7 +5653,7 @@
         <v>88.513000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
         <v>34</v>
       </c>
@@ -5636,7 +5678,7 @@
         <v>99.578999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
         <v>35</v>
       </c>
@@ -5661,7 +5703,7 @@
         <v>156.11000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
         <v>36</v>
       </c>
@@ -5686,7 +5728,7 @@
         <v>107.764</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
         <v>37</v>
       </c>
@@ -5711,7 +5753,7 @@
         <v>106.78700000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
         <v>38</v>
       </c>
@@ -5719,24 +5761,24 @@
         <v>87</v>
       </c>
       <c r="C27" s="32">
-        <v>0.78935999999999995</v>
+        <v>0</v>
       </c>
       <c r="D27" s="33">
-        <v>122.57</v>
+        <v>157.05500000000001</v>
       </c>
       <c r="E27" s="31">
         <f t="shared" si="1"/>
-        <v>121.78063999999999</v>
+        <v>157.05500000000001</v>
       </c>
       <c r="F27" s="31">
-        <v>105.75</v>
+        <v>127.191</v>
       </c>
       <c r="G27" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>104.96064</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>127.191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
         <v>39</v>
       </c>
@@ -5744,24 +5786,24 @@
         <v>81</v>
       </c>
       <c r="C28" s="32">
-        <v>15.566000000000001</v>
+        <v>0</v>
       </c>
       <c r="D28" s="33">
-        <v>195.61</v>
+        <v>180.14699999999999</v>
       </c>
       <c r="E28" s="31">
         <f t="shared" si="1"/>
-        <v>180.04400000000001</v>
+        <v>180.14699999999999</v>
       </c>
       <c r="F28" s="31">
-        <v>160.97999999999999</v>
+        <v>156.33000000000001</v>
       </c>
       <c r="G28" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>145.41399999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>156.33000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
         <v>40</v>
       </c>
@@ -5769,24 +5811,24 @@
         <v>86</v>
       </c>
       <c r="C29" s="32">
-        <v>1.4372</v>
+        <v>0</v>
       </c>
       <c r="D29" s="33">
-        <v>90.212999999999994</v>
+        <v>141.886</v>
       </c>
       <c r="E29" s="31">
         <f t="shared" si="1"/>
-        <v>88.77579999999999</v>
+        <v>141.886</v>
       </c>
       <c r="F29" s="31">
-        <v>61.314</v>
+        <v>128.45099999999999</v>
       </c>
       <c r="G29" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>59.876800000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>128.45099999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
         <v>41</v>
       </c>
@@ -5794,24 +5836,24 @@
         <v>85</v>
       </c>
       <c r="C30" s="32">
-        <v>-6.1247999999999996</v>
+        <v>0</v>
       </c>
       <c r="D30" s="33">
-        <v>194.42</v>
+        <v>200.63</v>
       </c>
       <c r="E30" s="31">
         <f t="shared" si="1"/>
-        <v>200.54479999999998</v>
+        <v>200.63</v>
       </c>
       <c r="F30" s="31">
-        <v>171.42</v>
+        <v>183.58</v>
       </c>
       <c r="G30" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>177.54479999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>183.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
         <v>43</v>
       </c>
@@ -5819,24 +5861,24 @@
         <v>90</v>
       </c>
       <c r="C31" s="32">
-        <v>-6.0292000000000003</v>
+        <v>0</v>
       </c>
       <c r="D31" s="33">
-        <v>127.26</v>
+        <v>133.27600000000001</v>
       </c>
       <c r="E31" s="31">
         <f t="shared" si="1"/>
-        <v>133.28919999999999</v>
+        <v>133.27600000000001</v>
       </c>
       <c r="F31" s="31">
-        <v>113.71</v>
+        <v>119.952</v>
       </c>
       <c r="G31" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>119.7392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>119.952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
         <v>44</v>
       </c>
@@ -5844,21 +5886,21 @@
         <v>89</v>
       </c>
       <c r="C32" s="32">
-        <v>0.65254000000000001</v>
+        <v>0</v>
       </c>
       <c r="D32" s="33">
-        <v>138.08000000000001</v>
+        <v>137.524</v>
       </c>
       <c r="E32" s="31">
         <f t="shared" si="1"/>
-        <v>137.42746000000002</v>
+        <v>137.524</v>
       </c>
       <c r="F32" s="31">
-        <v>116.45</v>
+        <v>115.895</v>
       </c>
       <c r="G32" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>115.79746</v>
+        <v>115.895</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5869,21 +5911,21 @@
         <v>153</v>
       </c>
       <c r="C33" s="32">
-        <v>0.73014999999999997</v>
+        <v>0</v>
       </c>
       <c r="D33" s="33">
-        <v>201.68</v>
+        <v>131.06399999999999</v>
       </c>
       <c r="E33" s="31">
         <f t="shared" si="1"/>
-        <v>200.94985</v>
+        <v>131.06399999999999</v>
       </c>
       <c r="F33" s="31">
-        <v>173.87</v>
+        <v>108.029</v>
       </c>
       <c r="G33" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>173.13985</v>
+        <v>108.029</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5894,21 +5936,21 @@
         <v>80</v>
       </c>
       <c r="C34" s="32">
-        <v>1.5028999999999999</v>
+        <v>0</v>
       </c>
       <c r="D34" s="33">
-        <v>146.99</v>
+        <v>145.43100000000001</v>
       </c>
       <c r="E34" s="31">
         <f t="shared" si="1"/>
-        <v>145.4871</v>
+        <v>145.43100000000001</v>
       </c>
       <c r="F34" s="34">
-        <v>102.35</v>
+        <v>104.297</v>
       </c>
       <c r="G34" s="36">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>100.8471</v>
+        <v>104.297</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1">

--- a/Stimuli/DepthMaps/depths.xlsx
+++ b/Stimuli/DepthMaps/depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF8AC37-329D-4924-A15D-AA16C94574A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A5149-49B0-4BE8-8C41-55C9C0846E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="179">
   <si>
     <t>apple</t>
   </si>
@@ -5091,7 +5091,7 @@
   <dimension ref="A2:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5189,6 +5189,9 @@
         <f t="shared" si="0"/>
         <v>157.1</v>
       </c>
+      <c r="K4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="31" t="s">
@@ -5214,6 +5217,9 @@
         <f t="shared" si="0"/>
         <v>103.26</v>
       </c>
+      <c r="K5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="31" t="s">
@@ -5267,6 +5273,9 @@
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
+      <c r="K7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="31" t="s">
@@ -5375,6 +5384,9 @@
       <c r="G11" s="30">
         <f t="shared" si="0"/>
         <v>113.06</v>
+      </c>
+      <c r="K11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5827,6 +5839,9 @@
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>128.45099999999999</v>
       </c>
+      <c r="L29" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
@@ -5851,6 +5866,9 @@
       <c r="G30" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>183.58</v>
+      </c>
+      <c r="L30" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:12">

--- a/Stimuli/DepthMaps/depths.xlsx
+++ b/Stimuli/DepthMaps/depths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A5149-49B0-4BE8-8C41-55C9C0846E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE8DD1-306C-42ED-94ED-AD67228AC809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="180">
   <si>
     <t>apple</t>
   </si>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>depthmap</t>
+  </si>
+  <si>
+    <t>depth map</t>
   </si>
 </sst>
 </file>
@@ -5091,7 +5094,7 @@
   <dimension ref="A2:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5104,7 +5107,7 @@
     <col min="6" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
@@ -5136,8 +5139,11 @@
       <c r="K2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1">
+      <c r="L2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickTop="1">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -5165,7 +5171,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
@@ -5221,7 +5227,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
@@ -5277,7 +5283,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="31" t="s">
         <v>6</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="31" t="s">
         <v>143</v>
       </c>
@@ -5361,7 +5367,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
@@ -5389,7 +5395,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
@@ -5413,8 +5419,11 @@
         <f t="shared" si="0"/>
         <v>212.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="31" t="s">
         <v>15</v>
       </c>
@@ -5442,7 +5451,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="31" t="s">
         <v>17</v>
       </c>
@@ -5470,7 +5479,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
@@ -5498,7 +5507,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>

--- a/Stimuli/DepthMaps/depths.xlsx
+++ b/Stimuli/DepthMaps/depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE8DD1-306C-42ED-94ED-AD67228AC809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E108E-5640-4A17-94C9-F9E98DA17AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="178">
   <si>
     <t>apple</t>
   </si>
@@ -588,9 +588,6 @@
     <t>mean</t>
   </si>
   <si>
-    <t>scrambled</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -598,9 +595,6 @@
   </si>
   <si>
     <t>depthmap</t>
-  </si>
-  <si>
-    <t>depth map</t>
   </si>
 </sst>
 </file>
@@ -5094,7 +5088,7 @@
   <dimension ref="A2:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5107,7 +5101,7 @@
     <col min="6" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
@@ -5136,14 +5130,8 @@
         <f>AVERAGE(Table9[visible range])</f>
         <v>136.06099999999998</v>
       </c>
-      <c r="K2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickTop="1">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickTop="1">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -5167,11 +5155,8 @@
         <f t="shared" ref="G3:G15" si="0">F3-C3</f>
         <v>179.68</v>
       </c>
-      <c r="K3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
@@ -5195,11 +5180,8 @@
         <f t="shared" si="0"/>
         <v>157.1</v>
       </c>
-      <c r="K4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
@@ -5223,11 +5205,8 @@
         <f t="shared" si="0"/>
         <v>103.26</v>
       </c>
-      <c r="K5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
@@ -5251,11 +5230,8 @@
         <f t="shared" si="0"/>
         <v>128.85</v>
       </c>
-      <c r="K6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
@@ -5279,11 +5255,8 @@
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="K7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
@@ -5307,11 +5280,8 @@
         <f t="shared" si="0"/>
         <v>124.35</v>
       </c>
-      <c r="K8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="31" t="s">
         <v>6</v>
       </c>
@@ -5335,11 +5305,8 @@
         <f t="shared" si="0"/>
         <v>128.87</v>
       </c>
-      <c r="K9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
         <v>143</v>
       </c>
@@ -5363,11 +5330,8 @@
         <f t="shared" si="0"/>
         <v>112.93</v>
       </c>
-      <c r="K10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
@@ -5391,11 +5355,8 @@
         <f t="shared" si="0"/>
         <v>113.06</v>
       </c>
-      <c r="K11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
@@ -5419,11 +5380,8 @@
         <f t="shared" si="0"/>
         <v>212.12</v>
       </c>
-      <c r="K12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="31" t="s">
         <v>15</v>
       </c>
@@ -5447,11 +5405,8 @@
         <f t="shared" si="0"/>
         <v>166.15100000000001</v>
       </c>
-      <c r="K13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="31" t="s">
         <v>17</v>
       </c>
@@ -5475,11 +5430,8 @@
         <f t="shared" si="0"/>
         <v>169.43</v>
       </c>
-      <c r="K14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
@@ -5503,11 +5455,8 @@
         <f t="shared" si="0"/>
         <v>59.991999999999997</v>
       </c>
-      <c r="K15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -5543,10 +5492,10 @@
         <v>116.9800588235294</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickTop="1">
@@ -5849,7 +5798,7 @@
         <v>128.45099999999999</v>
       </c>
       <c r="L29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -5877,7 +5826,7 @@
         <v>183.58</v>
       </c>
       <c r="L30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:12">

--- a/Stimuli/DepthMaps/depths.xlsx
+++ b/Stimuli/DepthMaps/depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E108E-5640-4A17-94C9-F9E98DA17AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380052DB-0C8E-4509-8760-FBDDB234EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="old" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5088,7 +5089,7 @@
   <dimension ref="A2:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5128,7 +5129,7 @@
       </c>
       <c r="I2">
         <f>AVERAGE(Table9[visible range])</f>
-        <v>136.06099999999998</v>
+        <v>135.82561538461539</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1">
@@ -5192,18 +5193,18 @@
         <v>0</v>
       </c>
       <c r="D5" s="33">
-        <v>181.751</v>
+        <v>151.94900000000001</v>
       </c>
       <c r="E5" s="33">
         <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
-        <v>181.751</v>
+        <v>151.94900000000001</v>
       </c>
       <c r="F5" s="31">
-        <v>103.26</v>
+        <v>100.2</v>
       </c>
       <c r="G5" s="30">
         <f t="shared" si="0"/>
-        <v>103.26</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="6" spans="1:9">

--- a/Stimuli/DepthMaps/depths.xlsx
+++ b/Stimuli/DepthMaps/depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380052DB-0C8E-4509-8760-FBDDB234EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3A4F64-A643-4F87-8332-372078DC766A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="histogram" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="old" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="182">
   <si>
     <t>apple</t>
   </si>
@@ -596,6 +595,18 @@
   </si>
   <si>
     <t>depthmap</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>object-solid_05</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>object-solid_10</t>
   </si>
 </sst>
 </file>
@@ -684,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -979,11 +990,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1030,28 +1054,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2256,10 +2273,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}" name="Table9" displayName="Table9" ref="A2:G15" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
-  <autoFilter ref="A2:G15" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G15">
-    <sortCondition ref="B2:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}" name="Table9" displayName="Table9" ref="A2:G17" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+  <autoFilter ref="A2:G17" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G17">
+    <sortCondition ref="B2:B17"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A4827EE5-A513-47B6-A2B8-5025802DF792}" name="Object" dataDxfId="67"/>
@@ -2310,15 +2327,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A17:G34" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57">
-  <autoFilter ref="A17:G34" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A19:G36" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57">
+  <autoFilter ref="A19:G36" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="56"/>
     <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="55"/>
     <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="54"/>
     <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="53"/>
     <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="52">
-      <calculatedColumnFormula>D18-C18</calculatedColumnFormula>
+      <calculatedColumnFormula>D20-C20</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="51"/>
     <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="50">
@@ -2330,8 +2347,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A36:G58" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A38:G60" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A38:G60" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F9320C00-040A-4ECC-97A9-CCBA240DFE63}" name="Face"/>
     <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="47"/>
@@ -2350,19 +2367,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A60:G75" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
-  <autoFilter ref="A60:G75" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A62:G77" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+  <autoFilter ref="A62:G77" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="36"/>
     <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="35"/>
     <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="34"/>
     <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="33">
-      <calculatedColumnFormula>D61-C61</calculatedColumnFormula>
+      <calculatedColumnFormula>D63-C63</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="32"/>
     <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="31">
-      <calculatedColumnFormula>F61-C61</calculatedColumnFormula>
+      <calculatedColumnFormula>F63-C63</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2741,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D578D86-D93F-4507-92E5-98F2DF597463}">
-  <dimension ref="A1:BA16"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AI22" sqref="AI22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2927,376 +2944,376 @@
       <c r="B2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="54" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
       <c r="AD2" s="45"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="56" t="s">
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
     </row>
     <row r="3" spans="1:53" ht="15" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="52">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>5762223</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>12</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>15</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>42</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>54</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>75</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>126</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>177</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>264</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>420</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>507</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="4">
         <v>741</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <v>972</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="4">
         <v>1260</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="4">
         <v>1773</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <v>1179</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="4">
         <v>1197</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="4">
         <v>1425</v>
       </c>
-      <c r="Y3" s="55">
+      <c r="Y3" s="47">
         <v>1530</v>
       </c>
-      <c r="Z3" s="53">
+      <c r="Z3" s="47">
         <v>1665</v>
       </c>
-      <c r="AA3" s="53">
+      <c r="AA3" s="47">
         <v>1995</v>
       </c>
-      <c r="AB3" s="53">
+      <c r="AB3" s="47">
         <v>2901</v>
       </c>
-      <c r="AC3" s="53">
+      <c r="AC3" s="47">
         <v>2952</v>
       </c>
-      <c r="AD3" s="53">
+      <c r="AD3" s="47">
         <v>3507</v>
       </c>
-      <c r="AE3" s="53">
+      <c r="AE3" s="47">
         <v>2973</v>
       </c>
-      <c r="AF3" s="53">
+      <c r="AF3" s="47">
         <v>1524</v>
       </c>
-      <c r="AG3" s="53">
+      <c r="AG3" s="47">
         <v>795</v>
       </c>
-      <c r="AH3" s="53">
+      <c r="AH3" s="47">
         <v>1392</v>
       </c>
-      <c r="AI3" s="53">
+      <c r="AI3" s="47">
         <v>4260</v>
       </c>
-      <c r="AJ3" s="53">
+      <c r="AJ3" s="47">
         <v>9852</v>
       </c>
-      <c r="AK3" s="53">
+      <c r="AK3" s="47">
         <v>19605</v>
       </c>
-      <c r="AL3" s="53">
+      <c r="AL3" s="47">
         <v>40107</v>
       </c>
-      <c r="AM3" s="53">
+      <c r="AM3" s="47">
         <v>42897</v>
       </c>
-      <c r="AN3" s="53">
+      <c r="AN3" s="47">
         <v>52353</v>
       </c>
-      <c r="AO3" s="53">
+      <c r="AO3" s="47">
         <v>80643</v>
       </c>
-      <c r="AP3" s="53">
+      <c r="AP3" s="47">
         <v>91590</v>
       </c>
-      <c r="AQ3" s="53">
+      <c r="AQ3" s="47">
         <v>84933</v>
       </c>
-      <c r="AR3" s="56">
+      <c r="AR3" s="47">
         <v>858</v>
       </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="2">
+      <c r="AS3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="58"/>
-      <c r="B4" s="19">
+      <c r="A4" s="50"/>
+      <c r="B4" s="52">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>5682825</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="55">
+        <v>0</v>
+      </c>
+      <c r="E4" s="55">
+        <v>0</v>
+      </c>
+      <c r="F4" s="55">
         <v>9</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="55">
+        <v>0</v>
+      </c>
+      <c r="H4" s="55">
         <v>15</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="55">
         <v>12</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="55">
         <v>15</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="55">
         <v>12</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="55">
         <v>21</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="55">
         <v>27</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="55">
         <v>21</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="55">
         <v>36</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="55">
         <v>33</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="55">
         <v>138</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="55">
         <v>147</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="55">
         <v>123</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="55">
         <v>129</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="55">
         <v>105</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="55">
         <v>153</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="55">
         <v>138</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="55">
         <v>138</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="56">
         <v>195</v>
       </c>
-      <c r="Z4" s="45">
+      <c r="Z4" s="56">
         <v>216</v>
       </c>
-      <c r="AA4" s="45">
+      <c r="AA4" s="56">
         <v>660</v>
       </c>
-      <c r="AB4" s="45">
+      <c r="AB4" s="56">
         <v>1215</v>
       </c>
-      <c r="AC4" s="45">
+      <c r="AC4" s="56">
         <v>1524</v>
       </c>
-      <c r="AD4" s="45">
+      <c r="AD4" s="56">
         <v>2235</v>
       </c>
-      <c r="AE4" s="45">
+      <c r="AE4" s="56">
         <v>3273</v>
       </c>
-      <c r="AF4" s="45">
+      <c r="AF4" s="56">
         <v>3840</v>
       </c>
-      <c r="AG4" s="45">
+      <c r="AG4" s="56">
         <v>4797</v>
       </c>
-      <c r="AH4" s="45">
+      <c r="AH4" s="56">
         <v>6084</v>
       </c>
-      <c r="AI4" s="45">
+      <c r="AI4" s="56">
         <v>6663</v>
       </c>
-      <c r="AJ4" s="45">
+      <c r="AJ4" s="56">
         <v>8232</v>
       </c>
-      <c r="AK4" s="45">
+      <c r="AK4" s="56">
         <v>10416</v>
       </c>
-      <c r="AL4" s="45">
+      <c r="AL4" s="56">
         <v>20016</v>
       </c>
-      <c r="AM4" s="45">
+      <c r="AM4" s="56">
         <v>29313</v>
       </c>
-      <c r="AN4" s="45">
+      <c r="AN4" s="56">
         <v>61314</v>
       </c>
-      <c r="AO4" s="45">
+      <c r="AO4" s="56">
         <v>134529</v>
       </c>
-      <c r="AP4" s="45">
+      <c r="AP4" s="56">
         <v>198522</v>
       </c>
-      <c r="AQ4" s="45">
+      <c r="AQ4" s="56">
         <v>43485</v>
       </c>
-      <c r="AR4" s="47">
+      <c r="AR4" s="56">
         <v>174</v>
       </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
+      <c r="AS4" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="55">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
@@ -3304,1777 +3321,2071 @@
       </c>
     </row>
     <row r="5" spans="1:53">
-      <c r="A5" s="58"/>
-      <c r="B5" s="19">
+      <c r="A5" s="50"/>
+      <c r="B5" s="52">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>5421729</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="6">
+        <v>5645412</v>
+      </c>
+      <c r="D5" s="55">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="55">
+        <v>36</v>
+      </c>
+      <c r="F5" s="55">
+        <v>33</v>
+      </c>
+      <c r="G5" s="55">
+        <v>72</v>
+      </c>
+      <c r="H5" s="55">
+        <v>150</v>
+      </c>
+      <c r="I5" s="55">
+        <v>165</v>
+      </c>
+      <c r="J5" s="55">
+        <v>225</v>
+      </c>
+      <c r="K5" s="55">
+        <v>267</v>
+      </c>
+      <c r="L5" s="55">
+        <v>294</v>
+      </c>
+      <c r="M5" s="55">
+        <v>360</v>
+      </c>
+      <c r="N5" s="55">
+        <v>426</v>
+      </c>
+      <c r="O5" s="55">
+        <v>495</v>
+      </c>
+      <c r="P5" s="55">
+        <v>630</v>
+      </c>
+      <c r="Q5" s="55">
+        <v>597</v>
+      </c>
+      <c r="R5" s="55">
+        <v>441</v>
+      </c>
+      <c r="S5" s="55">
+        <v>282</v>
+      </c>
+      <c r="T5" s="55">
+        <v>273</v>
+      </c>
+      <c r="U5" s="55">
+        <v>300</v>
+      </c>
+      <c r="V5" s="55">
+        <v>264</v>
+      </c>
+      <c r="W5" s="55">
+        <v>162</v>
+      </c>
+      <c r="X5" s="55">
+        <v>144</v>
+      </c>
+      <c r="Y5" s="56">
+        <v>123</v>
+      </c>
+      <c r="Z5" s="56">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="56">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="56">
+        <v>81</v>
+      </c>
+      <c r="AC5" s="56">
+        <v>504</v>
+      </c>
+      <c r="AD5" s="56">
+        <v>735</v>
+      </c>
+      <c r="AE5" s="56">
+        <v>3783</v>
+      </c>
+      <c r="AF5" s="56">
+        <v>10638</v>
+      </c>
+      <c r="AG5" s="56">
+        <v>18654</v>
+      </c>
+      <c r="AH5" s="56">
+        <v>27453</v>
+      </c>
+      <c r="AI5" s="56">
+        <v>30018</v>
+      </c>
+      <c r="AJ5" s="56">
+        <v>35307</v>
+      </c>
+      <c r="AK5" s="56">
+        <v>40944</v>
+      </c>
+      <c r="AL5" s="56">
+        <v>59364</v>
+      </c>
+      <c r="AM5" s="56">
+        <v>65955</v>
+      </c>
+      <c r="AN5" s="56">
+        <v>72165</v>
+      </c>
+      <c r="AO5" s="56">
+        <v>84303</v>
+      </c>
+      <c r="AP5" s="56">
+        <v>74895</v>
+      </c>
+      <c r="AQ5" s="56">
+        <v>44304</v>
+      </c>
+      <c r="AR5" s="56">
+        <v>417</v>
+      </c>
+      <c r="AS5" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" s="50"/>
+      <c r="B6" s="52">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5861466</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0</v>
+      </c>
+      <c r="F6" s="55">
+        <v>0</v>
+      </c>
+      <c r="G6" s="55">
+        <v>0</v>
+      </c>
+      <c r="H6" s="55">
+        <v>0</v>
+      </c>
+      <c r="I6" s="55">
+        <v>0</v>
+      </c>
+      <c r="J6" s="55">
+        <v>18</v>
+      </c>
+      <c r="K6" s="55">
+        <v>0</v>
+      </c>
+      <c r="L6" s="55">
+        <v>24</v>
+      </c>
+      <c r="M6" s="55">
+        <v>45</v>
+      </c>
+      <c r="N6" s="55">
+        <v>66</v>
+      </c>
+      <c r="O6" s="55">
+        <v>99</v>
+      </c>
+      <c r="P6" s="55">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="55">
+        <v>87</v>
+      </c>
+      <c r="R6" s="55">
+        <v>138</v>
+      </c>
+      <c r="S6" s="55">
+        <v>189</v>
+      </c>
+      <c r="T6" s="55">
+        <v>219</v>
+      </c>
+      <c r="U6" s="55">
+        <v>171</v>
+      </c>
+      <c r="V6" s="55">
+        <v>36</v>
+      </c>
+      <c r="W6" s="55">
+        <v>0</v>
+      </c>
+      <c r="X6" s="55">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="56">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="56">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="56">
+        <v>273</v>
+      </c>
+      <c r="AB6" s="56">
+        <v>789</v>
+      </c>
+      <c r="AC6" s="56">
+        <v>1251</v>
+      </c>
+      <c r="AD6" s="56">
+        <v>2646</v>
+      </c>
+      <c r="AE6" s="56">
+        <v>3183</v>
+      </c>
+      <c r="AF6" s="56">
+        <v>2985</v>
+      </c>
+      <c r="AG6" s="56">
+        <v>3042</v>
+      </c>
+      <c r="AH6" s="56">
+        <v>4125</v>
+      </c>
+      <c r="AI6" s="56">
+        <v>4116</v>
+      </c>
+      <c r="AJ6" s="56">
+        <v>6744</v>
+      </c>
+      <c r="AK6" s="56">
+        <v>13401</v>
+      </c>
+      <c r="AL6" s="56">
+        <v>22899</v>
+      </c>
+      <c r="AM6" s="56">
+        <v>27789</v>
+      </c>
+      <c r="AN6" s="56">
+        <v>48195</v>
+      </c>
+      <c r="AO6" s="56">
+        <v>72021</v>
+      </c>
+      <c r="AP6" s="56">
+        <v>82953</v>
+      </c>
+      <c r="AQ6" s="56">
+        <v>60855</v>
+      </c>
+      <c r="AR6" s="56">
+        <v>810</v>
+      </c>
+      <c r="AS6" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" s="50"/>
+      <c r="B7" s="53">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6013110</v>
+      </c>
+      <c r="D7" s="55">
+        <v>6</v>
+      </c>
+      <c r="E7" s="55">
+        <v>21</v>
+      </c>
+      <c r="F7" s="55">
+        <v>63</v>
+      </c>
+      <c r="G7" s="55">
+        <v>111</v>
+      </c>
+      <c r="H7" s="55">
+        <v>210</v>
+      </c>
+      <c r="I7" s="55">
+        <v>267</v>
+      </c>
+      <c r="J7" s="55">
+        <v>333</v>
+      </c>
+      <c r="K7" s="55">
+        <v>447</v>
+      </c>
+      <c r="L7" s="55">
+        <v>609</v>
+      </c>
+      <c r="M7" s="55">
+        <v>852</v>
+      </c>
+      <c r="N7" s="55">
+        <v>1209</v>
+      </c>
+      <c r="O7" s="55">
+        <v>1554</v>
+      </c>
+      <c r="P7" s="55">
+        <v>1845</v>
+      </c>
+      <c r="Q7" s="55">
+        <v>2073</v>
+      </c>
+      <c r="R7" s="55">
+        <v>2796</v>
+      </c>
+      <c r="S7" s="55">
+        <v>2517</v>
+      </c>
+      <c r="T7" s="55">
+        <v>2505</v>
+      </c>
+      <c r="U7" s="55">
+        <v>2388</v>
+      </c>
+      <c r="V7" s="55">
+        <v>2043</v>
+      </c>
+      <c r="W7" s="55">
+        <v>1653</v>
+      </c>
+      <c r="X7" s="55">
+        <v>1671</v>
+      </c>
+      <c r="Y7" s="56">
+        <v>1383</v>
+      </c>
+      <c r="Z7" s="56">
+        <v>1182</v>
+      </c>
+      <c r="AA7" s="56">
+        <v>951</v>
+      </c>
+      <c r="AB7" s="56">
+        <v>1755</v>
+      </c>
+      <c r="AC7" s="56">
+        <v>1665</v>
+      </c>
+      <c r="AD7" s="56">
+        <v>1380</v>
+      </c>
+      <c r="AE7" s="56">
+        <v>750</v>
+      </c>
+      <c r="AF7" s="56">
+        <v>126</v>
+      </c>
+      <c r="AG7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="56">
+        <v>69</v>
+      </c>
+      <c r="AI7" s="56">
+        <v>591</v>
+      </c>
+      <c r="AJ7" s="56">
+        <v>2790</v>
+      </c>
+      <c r="AK7" s="56">
+        <v>7896</v>
+      </c>
+      <c r="AL7" s="56">
+        <v>13578</v>
+      </c>
+      <c r="AM7" s="56">
+        <v>13488</v>
+      </c>
+      <c r="AN7" s="56">
+        <v>16539</v>
+      </c>
+      <c r="AO7" s="56">
+        <v>24186</v>
+      </c>
+      <c r="AP7" s="56">
+        <v>43608</v>
+      </c>
+      <c r="AQ7" s="56">
+        <v>50196</v>
+      </c>
+      <c r="AR7" s="56">
+        <v>384</v>
+      </c>
+      <c r="AS7" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" s="50"/>
+      <c r="B8" s="52">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5908230</v>
+      </c>
+      <c r="D8" s="55">
+        <v>0</v>
+      </c>
+      <c r="E8" s="55">
+        <v>0</v>
+      </c>
+      <c r="F8" s="55">
+        <v>3</v>
+      </c>
+      <c r="G8" s="55">
+        <v>3</v>
+      </c>
+      <c r="H8" s="55">
+        <v>3</v>
+      </c>
+      <c r="I8" s="55">
+        <v>15</v>
+      </c>
+      <c r="J8" s="55">
+        <v>15</v>
+      </c>
+      <c r="K8" s="55">
+        <v>21</v>
+      </c>
+      <c r="L8" s="55">
+        <v>24</v>
+      </c>
+      <c r="M8" s="55">
+        <v>33</v>
+      </c>
+      <c r="N8" s="55">
+        <v>57</v>
+      </c>
+      <c r="O8" s="55">
+        <v>93</v>
+      </c>
+      <c r="P8" s="55">
+        <v>165</v>
+      </c>
+      <c r="Q8" s="55">
+        <v>276</v>
+      </c>
+      <c r="R8" s="55">
+        <v>381</v>
+      </c>
+      <c r="S8" s="55">
+        <v>534</v>
+      </c>
+      <c r="T8" s="55">
+        <v>720</v>
+      </c>
+      <c r="U8" s="55">
+        <v>1161</v>
+      </c>
+      <c r="V8" s="55">
+        <v>1818</v>
+      </c>
+      <c r="W8" s="55">
+        <v>2778</v>
+      </c>
+      <c r="X8" s="55">
+        <v>3690</v>
+      </c>
+      <c r="Y8" s="56">
+        <v>4143</v>
+      </c>
+      <c r="Z8" s="56">
+        <v>4605</v>
+      </c>
+      <c r="AA8" s="56">
+        <v>5592</v>
+      </c>
+      <c r="AB8" s="56">
+        <v>8994</v>
+      </c>
+      <c r="AC8" s="56">
+        <v>9378</v>
+      </c>
+      <c r="AD8" s="56">
+        <v>14685</v>
+      </c>
+      <c r="AE8" s="56">
+        <v>13740</v>
+      </c>
+      <c r="AF8" s="56">
+        <v>15867</v>
+      </c>
+      <c r="AG8" s="56">
+        <v>19236</v>
+      </c>
+      <c r="AH8" s="56">
+        <v>21837</v>
+      </c>
+      <c r="AI8" s="56">
+        <v>22362</v>
+      </c>
+      <c r="AJ8" s="56">
+        <v>25977</v>
+      </c>
+      <c r="AK8" s="56">
+        <v>32052</v>
+      </c>
+      <c r="AL8" s="56">
+        <v>14775</v>
+      </c>
+      <c r="AM8" s="56">
+        <v>13359</v>
+      </c>
+      <c r="AN8" s="56">
+        <v>16686</v>
+      </c>
+      <c r="AO8" s="56">
+        <v>15447</v>
+      </c>
+      <c r="AP8" s="56">
+        <v>17835</v>
+      </c>
+      <c r="AQ8" s="56">
+        <v>24168</v>
+      </c>
+      <c r="AR8" s="56">
+        <v>42</v>
+      </c>
+      <c r="AS8" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="A9" s="50"/>
+      <c r="B9" s="52">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5575407</v>
+      </c>
+      <c r="D9" s="55">
+        <v>3</v>
+      </c>
+      <c r="E9" s="55">
+        <v>3</v>
+      </c>
+      <c r="F9" s="55">
+        <v>6</v>
+      </c>
+      <c r="G9" s="55">
+        <v>9</v>
+      </c>
+      <c r="H9" s="55">
+        <v>24</v>
+      </c>
+      <c r="I9" s="55">
+        <v>3</v>
+      </c>
+      <c r="J9" s="55">
+        <v>18</v>
+      </c>
+      <c r="K9" s="55">
+        <v>24</v>
+      </c>
+      <c r="L9" s="55">
+        <v>36</v>
+      </c>
+      <c r="M9" s="55">
+        <v>36</v>
+      </c>
+      <c r="N9" s="55">
+        <v>15</v>
+      </c>
+      <c r="O9" s="55">
+        <v>33</v>
+      </c>
+      <c r="P9" s="55">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="55">
+        <v>66</v>
+      </c>
+      <c r="R9" s="55">
+        <v>153</v>
+      </c>
+      <c r="S9" s="55">
+        <v>141</v>
+      </c>
+      <c r="T9" s="55">
+        <v>174</v>
+      </c>
+      <c r="U9" s="55">
+        <v>234</v>
+      </c>
+      <c r="V9" s="55">
+        <v>321</v>
+      </c>
+      <c r="W9" s="55">
+        <v>423</v>
+      </c>
+      <c r="X9" s="55">
+        <v>600</v>
+      </c>
+      <c r="Y9" s="56">
+        <v>783</v>
+      </c>
+      <c r="Z9" s="56">
+        <v>945</v>
+      </c>
+      <c r="AA9" s="56">
+        <v>1206</v>
+      </c>
+      <c r="AB9" s="56">
+        <v>1938</v>
+      </c>
+      <c r="AC9" s="56">
+        <v>2283</v>
+      </c>
+      <c r="AD9" s="56">
+        <v>3138</v>
+      </c>
+      <c r="AE9" s="56">
+        <v>4482</v>
+      </c>
+      <c r="AF9" s="56">
+        <v>6726</v>
+      </c>
+      <c r="AG9" s="56">
+        <v>10029</v>
+      </c>
+      <c r="AH9" s="56">
+        <v>11541</v>
+      </c>
+      <c r="AI9" s="56">
+        <v>13848</v>
+      </c>
+      <c r="AJ9" s="56">
+        <v>18030</v>
+      </c>
+      <c r="AK9" s="56">
+        <v>23208</v>
+      </c>
+      <c r="AL9" s="56">
+        <v>36228</v>
+      </c>
+      <c r="AM9" s="56">
+        <v>41673</v>
+      </c>
+      <c r="AN9" s="56">
+        <v>57783</v>
+      </c>
+      <c r="AO9" s="56">
+        <v>85827</v>
+      </c>
+      <c r="AP9" s="56">
+        <v>132150</v>
+      </c>
+      <c r="AQ9" s="56">
+        <v>189495</v>
+      </c>
+      <c r="AR9" s="56">
+        <v>1740</v>
+      </c>
+      <c r="AS9" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="50"/>
+      <c r="B10" s="52">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5746935</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0</v>
+      </c>
+      <c r="E10" s="55">
+        <v>3</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0</v>
+      </c>
+      <c r="G10" s="55">
+        <v>3</v>
+      </c>
+      <c r="H10" s="55">
+        <v>3</v>
+      </c>
+      <c r="I10" s="55">
+        <v>12</v>
+      </c>
+      <c r="J10" s="55">
         <v>39</v>
       </c>
-      <c r="F5">
-        <v>87</v>
-      </c>
-      <c r="G5">
-        <v>123</v>
-      </c>
-      <c r="H5">
-        <v>222</v>
-      </c>
-      <c r="I5">
-        <v>264</v>
-      </c>
-      <c r="J5">
-        <v>306</v>
-      </c>
-      <c r="K5">
-        <v>381</v>
-      </c>
-      <c r="L5">
+      <c r="K10" s="55">
+        <v>93</v>
+      </c>
+      <c r="L10" s="55">
+        <v>90</v>
+      </c>
+      <c r="M10" s="55">
+        <v>147</v>
+      </c>
+      <c r="N10" s="55">
+        <v>210</v>
+      </c>
+      <c r="O10" s="55">
+        <v>285</v>
+      </c>
+      <c r="P10" s="55">
+        <v>363</v>
+      </c>
+      <c r="Q10" s="55">
+        <v>453</v>
+      </c>
+      <c r="R10" s="55">
+        <v>621</v>
+      </c>
+      <c r="S10" s="55">
+        <v>624</v>
+      </c>
+      <c r="T10" s="55">
+        <v>681</v>
+      </c>
+      <c r="U10" s="55">
+        <v>741</v>
+      </c>
+      <c r="V10" s="55">
+        <v>819</v>
+      </c>
+      <c r="W10" s="55">
+        <v>780</v>
+      </c>
+      <c r="X10" s="55">
+        <v>705</v>
+      </c>
+      <c r="Y10" s="56">
+        <v>726</v>
+      </c>
+      <c r="Z10" s="56">
+        <v>663</v>
+      </c>
+      <c r="AA10" s="56">
+        <v>522</v>
+      </c>
+      <c r="AB10" s="56">
+        <v>690</v>
+      </c>
+      <c r="AC10" s="56">
+        <v>654</v>
+      </c>
+      <c r="AD10" s="56">
+        <v>519</v>
+      </c>
+      <c r="AE10" s="56">
+        <v>552</v>
+      </c>
+      <c r="AF10" s="56">
+        <v>681</v>
+      </c>
+      <c r="AG10" s="56">
+        <v>687</v>
+      </c>
+      <c r="AH10" s="56">
+        <v>1197</v>
+      </c>
+      <c r="AI10" s="56">
+        <v>1818</v>
+      </c>
+      <c r="AJ10" s="56">
+        <v>2784</v>
+      </c>
+      <c r="AK10" s="56">
+        <v>4257</v>
+      </c>
+      <c r="AL10" s="56">
+        <v>9225</v>
+      </c>
+      <c r="AM10" s="56">
+        <v>16671</v>
+      </c>
+      <c r="AN10" s="56">
+        <v>36699</v>
+      </c>
+      <c r="AO10" s="56">
+        <v>87156</v>
+      </c>
+      <c r="AP10" s="56">
+        <v>153768</v>
+      </c>
+      <c r="AQ10" s="56">
+        <v>146343</v>
+      </c>
+      <c r="AR10" s="56">
+        <v>1581</v>
+      </c>
+      <c r="AS10" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="50"/>
+      <c r="B11" s="52">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6014433</v>
+      </c>
+      <c r="D11" s="55">
+        <v>3</v>
+      </c>
+      <c r="E11" s="55">
+        <v>6</v>
+      </c>
+      <c r="F11" s="55">
+        <v>9</v>
+      </c>
+      <c r="G11" s="55">
+        <v>6</v>
+      </c>
+      <c r="H11" s="55">
+        <v>15</v>
+      </c>
+      <c r="I11" s="55">
+        <v>24</v>
+      </c>
+      <c r="J11" s="55">
+        <v>33</v>
+      </c>
+      <c r="K11" s="55">
+        <v>54</v>
+      </c>
+      <c r="L11" s="55">
+        <v>81</v>
+      </c>
+      <c r="M11" s="55">
+        <v>90</v>
+      </c>
+      <c r="N11" s="55">
+        <v>114</v>
+      </c>
+      <c r="O11" s="55">
+        <v>153</v>
+      </c>
+      <c r="P11" s="55">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="55">
+        <v>216</v>
+      </c>
+      <c r="R11" s="55">
+        <v>243</v>
+      </c>
+      <c r="S11" s="55">
+        <v>276</v>
+      </c>
+      <c r="T11" s="55">
+        <v>288</v>
+      </c>
+      <c r="U11" s="55">
+        <v>297</v>
+      </c>
+      <c r="V11" s="55">
+        <v>357</v>
+      </c>
+      <c r="W11" s="55">
+        <v>360</v>
+      </c>
+      <c r="X11" s="55">
+        <v>435</v>
+      </c>
+      <c r="Y11" s="56">
+        <v>459</v>
+      </c>
+      <c r="Z11" s="56">
+        <v>531</v>
+      </c>
+      <c r="AA11" s="56">
+        <v>621</v>
+      </c>
+      <c r="AB11" s="56">
+        <v>810</v>
+      </c>
+      <c r="AC11" s="56">
+        <v>825</v>
+      </c>
+      <c r="AD11" s="56">
+        <v>996</v>
+      </c>
+      <c r="AE11" s="56">
+        <v>1167</v>
+      </c>
+      <c r="AF11" s="56">
+        <v>1377</v>
+      </c>
+      <c r="AG11" s="56">
+        <v>1572</v>
+      </c>
+      <c r="AH11" s="56">
+        <v>1632</v>
+      </c>
+      <c r="AI11" s="56">
+        <v>2193</v>
+      </c>
+      <c r="AJ11" s="56">
+        <v>3996</v>
+      </c>
+      <c r="AK11" s="56">
+        <v>6504</v>
+      </c>
+      <c r="AL11" s="56">
+        <v>15504</v>
+      </c>
+      <c r="AM11" s="56">
+        <v>18927</v>
+      </c>
+      <c r="AN11" s="56">
+        <v>14136</v>
+      </c>
+      <c r="AO11" s="56">
+        <v>21051</v>
+      </c>
+      <c r="AP11" s="56">
+        <v>54135</v>
+      </c>
+      <c r="AQ11" s="56">
+        <v>56430</v>
+      </c>
+      <c r="AR11" s="56">
+        <v>297</v>
+      </c>
+      <c r="AS11" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="50"/>
+      <c r="B12" s="52">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6009312</v>
+      </c>
+      <c r="D12" s="55">
+        <v>9</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0</v>
+      </c>
+      <c r="F12" s="55">
+        <v>0</v>
+      </c>
+      <c r="G12" s="55">
+        <v>0</v>
+      </c>
+      <c r="H12" s="55">
+        <v>12</v>
+      </c>
+      <c r="I12" s="55">
+        <v>0</v>
+      </c>
+      <c r="J12" s="55">
+        <v>6</v>
+      </c>
+      <c r="K12" s="55">
+        <v>12</v>
+      </c>
+      <c r="L12" s="55">
+        <v>0</v>
+      </c>
+      <c r="M12" s="55">
+        <v>180</v>
+      </c>
+      <c r="N12" s="55">
+        <v>249</v>
+      </c>
+      <c r="O12" s="55">
+        <v>231</v>
+      </c>
+      <c r="P12" s="55">
+        <v>195</v>
+      </c>
+      <c r="Q12" s="55">
+        <v>417</v>
+      </c>
+      <c r="R12" s="55">
+        <v>354</v>
+      </c>
+      <c r="S12" s="55">
+        <v>276</v>
+      </c>
+      <c r="T12" s="55">
+        <v>333</v>
+      </c>
+      <c r="U12" s="55">
+        <v>387</v>
+      </c>
+      <c r="V12" s="55">
+        <v>459</v>
+      </c>
+      <c r="W12" s="55">
+        <v>636</v>
+      </c>
+      <c r="X12" s="55">
+        <v>1476</v>
+      </c>
+      <c r="Y12" s="56">
+        <v>1461</v>
+      </c>
+      <c r="Z12" s="56">
+        <v>1596</v>
+      </c>
+      <c r="AA12" s="56">
+        <v>1734</v>
+      </c>
+      <c r="AB12" s="56">
+        <v>2325</v>
+      </c>
+      <c r="AC12" s="56">
+        <v>2175</v>
+      </c>
+      <c r="AD12" s="56">
+        <v>2553</v>
+      </c>
+      <c r="AE12" s="56">
+        <v>2685</v>
+      </c>
+      <c r="AF12" s="56">
+        <v>3108</v>
+      </c>
+      <c r="AG12" s="56">
+        <v>3369</v>
+      </c>
+      <c r="AH12" s="56">
+        <v>3864</v>
+      </c>
+      <c r="AI12" s="56">
+        <v>4479</v>
+      </c>
+      <c r="AJ12" s="56">
+        <v>5094</v>
+      </c>
+      <c r="AK12" s="56">
+        <v>5757</v>
+      </c>
+      <c r="AL12" s="56">
+        <v>8322</v>
+      </c>
+      <c r="AM12" s="56">
+        <v>8334</v>
+      </c>
+      <c r="AN12" s="56">
+        <v>10002</v>
+      </c>
+      <c r="AO12" s="56">
+        <v>12213</v>
+      </c>
+      <c r="AP12" s="56">
+        <v>27540</v>
+      </c>
+      <c r="AQ12" s="56">
+        <v>99117</v>
+      </c>
+      <c r="AR12" s="56">
+        <v>528</v>
+      </c>
+      <c r="AS12" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="50"/>
+      <c r="B13" s="52">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5642202</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0</v>
+      </c>
+      <c r="G13" s="55">
+        <v>0</v>
+      </c>
+      <c r="H13" s="55">
+        <v>3</v>
+      </c>
+      <c r="I13" s="55">
+        <v>3</v>
+      </c>
+      <c r="J13" s="55">
+        <v>0</v>
+      </c>
+      <c r="K13" s="55">
+        <v>3</v>
+      </c>
+      <c r="L13" s="55">
+        <v>6</v>
+      </c>
+      <c r="M13" s="55">
+        <v>3</v>
+      </c>
+      <c r="N13" s="55">
+        <v>6</v>
+      </c>
+      <c r="O13" s="55">
+        <v>21</v>
+      </c>
+      <c r="P13" s="55">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="55">
+        <v>15</v>
+      </c>
+      <c r="R13" s="55">
+        <v>30</v>
+      </c>
+      <c r="S13" s="55">
+        <v>24</v>
+      </c>
+      <c r="T13" s="55">
+        <v>30</v>
+      </c>
+      <c r="U13" s="55">
+        <v>45</v>
+      </c>
+      <c r="V13" s="55">
+        <v>60</v>
+      </c>
+      <c r="W13" s="55">
+        <v>96</v>
+      </c>
+      <c r="X13" s="55">
+        <v>126</v>
+      </c>
+      <c r="Y13" s="56">
+        <v>153</v>
+      </c>
+      <c r="Z13" s="56">
+        <v>219</v>
+      </c>
+      <c r="AA13" s="56">
+        <v>258</v>
+      </c>
+      <c r="AB13" s="56">
+        <v>480</v>
+      </c>
+      <c r="AC13" s="56">
+        <v>663</v>
+      </c>
+      <c r="AD13" s="56">
+        <v>903</v>
+      </c>
+      <c r="AE13" s="56">
+        <v>1116</v>
+      </c>
+      <c r="AF13" s="56">
+        <v>1434</v>
+      </c>
+      <c r="AG13" s="56">
+        <v>1749</v>
+      </c>
+      <c r="AH13" s="56">
+        <v>2913</v>
+      </c>
+      <c r="AI13" s="56">
+        <v>4491</v>
+      </c>
+      <c r="AJ13" s="56">
+        <v>7227</v>
+      </c>
+      <c r="AK13" s="56">
+        <v>12756</v>
+      </c>
+      <c r="AL13" s="56">
+        <v>28077</v>
+      </c>
+      <c r="AM13" s="56">
+        <v>65586</v>
+      </c>
+      <c r="AN13" s="56">
+        <v>107610</v>
+      </c>
+      <c r="AO13" s="56">
+        <v>169998</v>
+      </c>
+      <c r="AP13" s="56">
+        <v>156396</v>
+      </c>
+      <c r="AQ13" s="56">
+        <v>16059</v>
+      </c>
+      <c r="AR13" s="56">
+        <v>36</v>
+      </c>
+      <c r="AS13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="50"/>
+      <c r="B14" s="52">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6007881</v>
+      </c>
+      <c r="D14" s="55">
+        <v>18</v>
+      </c>
+      <c r="E14" s="55">
+        <v>39</v>
+      </c>
+      <c r="F14" s="55">
+        <v>66</v>
+      </c>
+      <c r="G14" s="55">
+        <v>72</v>
+      </c>
+      <c r="H14" s="55">
+        <v>147</v>
+      </c>
+      <c r="I14" s="55">
+        <v>144</v>
+      </c>
+      <c r="J14" s="55">
+        <v>201</v>
+      </c>
+      <c r="K14" s="55">
+        <v>255</v>
+      </c>
+      <c r="L14" s="55">
+        <v>324</v>
+      </c>
+      <c r="M14" s="55">
+        <v>384</v>
+      </c>
+      <c r="N14" s="55">
         <v>465</v>
       </c>
-      <c r="M5">
+      <c r="O14" s="55">
+        <v>723</v>
+      </c>
+      <c r="P14" s="55">
+        <v>675</v>
+      </c>
+      <c r="Q14" s="55">
+        <v>567</v>
+      </c>
+      <c r="R14" s="55">
+        <v>627</v>
+      </c>
+      <c r="S14" s="55">
+        <v>519</v>
+      </c>
+      <c r="T14" s="55">
+        <v>405</v>
+      </c>
+      <c r="U14" s="55">
+        <v>345</v>
+      </c>
+      <c r="V14" s="55">
+        <v>132</v>
+      </c>
+      <c r="W14" s="55">
+        <v>84</v>
+      </c>
+      <c r="X14" s="55">
+        <v>72</v>
+      </c>
+      <c r="Y14" s="56">
+        <v>51</v>
+      </c>
+      <c r="Z14" s="56">
+        <v>114</v>
+      </c>
+      <c r="AA14" s="56">
+        <v>336</v>
+      </c>
+      <c r="AB14" s="56">
+        <v>1041</v>
+      </c>
+      <c r="AC14" s="56">
+        <v>1524</v>
+      </c>
+      <c r="AD14" s="56">
+        <v>2340</v>
+      </c>
+      <c r="AE14" s="56">
+        <v>4089</v>
+      </c>
+      <c r="AF14" s="56">
+        <v>8661</v>
+      </c>
+      <c r="AG14" s="56">
+        <v>6804</v>
+      </c>
+      <c r="AH14" s="56">
+        <v>5556</v>
+      </c>
+      <c r="AI14" s="56">
+        <v>8727</v>
+      </c>
+      <c r="AJ14" s="56">
+        <v>9624</v>
+      </c>
+      <c r="AK14" s="56">
+        <v>13248</v>
+      </c>
+      <c r="AL14" s="56">
+        <v>17871</v>
+      </c>
+      <c r="AM14" s="56">
+        <v>41505</v>
+      </c>
+      <c r="AN14" s="56">
+        <v>30234</v>
+      </c>
+      <c r="AO14" s="56">
+        <v>29877</v>
+      </c>
+      <c r="AP14" s="56">
+        <v>15603</v>
+      </c>
+      <c r="AQ14" s="56">
+        <v>9423</v>
+      </c>
+      <c r="AR14" s="56">
+        <v>27</v>
+      </c>
+      <c r="AS14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="50"/>
+      <c r="B15" s="52">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5708397</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0</v>
+      </c>
+      <c r="E15" s="55">
+        <v>45</v>
+      </c>
+      <c r="F15" s="55">
+        <v>21</v>
+      </c>
+      <c r="G15" s="55">
+        <v>90</v>
+      </c>
+      <c r="H15" s="55">
+        <v>66</v>
+      </c>
+      <c r="I15" s="55">
+        <v>132</v>
+      </c>
+      <c r="J15" s="55">
+        <v>162</v>
+      </c>
+      <c r="K15" s="55">
+        <v>186</v>
+      </c>
+      <c r="L15" s="55">
+        <v>267</v>
+      </c>
+      <c r="M15" s="55">
+        <v>327</v>
+      </c>
+      <c r="N15" s="55">
+        <v>408</v>
+      </c>
+      <c r="O15" s="55">
+        <v>477</v>
+      </c>
+      <c r="P15" s="55">
+        <v>594</v>
+      </c>
+      <c r="Q15" s="55">
+        <v>675</v>
+      </c>
+      <c r="R15" s="55">
+        <v>1008</v>
+      </c>
+      <c r="S15" s="55">
+        <v>1476</v>
+      </c>
+      <c r="T15" s="55">
+        <v>2385</v>
+      </c>
+      <c r="U15" s="55">
+        <v>1560</v>
+      </c>
+      <c r="V15" s="55">
+        <v>1194</v>
+      </c>
+      <c r="W15" s="55">
+        <v>1065</v>
+      </c>
+      <c r="X15" s="55">
+        <v>957</v>
+      </c>
+      <c r="Y15" s="56">
+        <v>705</v>
+      </c>
+      <c r="Z15" s="56">
         <v>543</v>
       </c>
-      <c r="N5">
-        <v>633</v>
-      </c>
-      <c r="O5">
-        <v>690</v>
-      </c>
-      <c r="P5">
-        <v>735</v>
-      </c>
-      <c r="Q5">
-        <v>636</v>
-      </c>
-      <c r="R5">
-        <v>540</v>
-      </c>
-      <c r="S5">
-        <v>327</v>
-      </c>
-      <c r="T5">
-        <v>285</v>
-      </c>
-      <c r="U5">
-        <v>201</v>
-      </c>
-      <c r="V5">
-        <v>192</v>
-      </c>
-      <c r="W5">
-        <v>189</v>
-      </c>
-      <c r="X5">
-        <v>141</v>
-      </c>
-      <c r="Y5" s="46">
-        <v>69</v>
-      </c>
-      <c r="Z5" s="45">
+      <c r="AA15" s="56">
+        <v>645</v>
+      </c>
+      <c r="AB15" s="56">
+        <v>969</v>
+      </c>
+      <c r="AC15" s="56">
+        <v>1047</v>
+      </c>
+      <c r="AD15" s="56">
+        <v>840</v>
+      </c>
+      <c r="AE15" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="56">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="56">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="56">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="56">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="56">
+        <v>12</v>
+      </c>
+      <c r="AK15" s="56">
+        <v>102</v>
+      </c>
+      <c r="AL15" s="56">
+        <v>8031</v>
+      </c>
+      <c r="AM15" s="56">
+        <v>12927</v>
+      </c>
+      <c r="AN15" s="56">
+        <v>36036</v>
+      </c>
+      <c r="AO15" s="56">
+        <v>80724</v>
+      </c>
+      <c r="AP15" s="56">
+        <v>165849</v>
+      </c>
+      <c r="AQ15" s="56">
+        <v>190725</v>
+      </c>
+      <c r="AR15" s="56">
+        <v>153</v>
+      </c>
+      <c r="AS15" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" s="4" customFormat="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5959452</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0</v>
+      </c>
+      <c r="E16" s="55">
+        <v>3</v>
+      </c>
+      <c r="F16" s="55">
+        <v>6</v>
+      </c>
+      <c r="G16" s="55">
+        <v>6</v>
+      </c>
+      <c r="H16" s="55">
         <v>27</v>
       </c>
-      <c r="AA5" s="45">
+      <c r="I16" s="55">
+        <v>33</v>
+      </c>
+      <c r="J16" s="55">
+        <v>48</v>
+      </c>
+      <c r="K16" s="55">
+        <v>66</v>
+      </c>
+      <c r="L16" s="55">
+        <v>135</v>
+      </c>
+      <c r="M16" s="55">
+        <v>150</v>
+      </c>
+      <c r="N16" s="55">
+        <v>216</v>
+      </c>
+      <c r="O16" s="55">
+        <v>339</v>
+      </c>
+      <c r="P16" s="55">
+        <v>519</v>
+      </c>
+      <c r="Q16" s="55">
+        <v>822</v>
+      </c>
+      <c r="R16" s="55">
+        <v>1359</v>
+      </c>
+      <c r="S16" s="55">
+        <v>1680</v>
+      </c>
+      <c r="T16" s="55">
+        <v>2490</v>
+      </c>
+      <c r="U16" s="55">
+        <v>1560</v>
+      </c>
+      <c r="V16" s="55">
+        <v>1287</v>
+      </c>
+      <c r="W16" s="55">
+        <v>1578</v>
+      </c>
+      <c r="X16" s="55">
+        <v>1794</v>
+      </c>
+      <c r="Y16" s="56">
+        <v>1920</v>
+      </c>
+      <c r="Z16" s="56">
+        <v>2055</v>
+      </c>
+      <c r="AA16" s="56">
+        <v>2202</v>
+      </c>
+      <c r="AB16" s="56">
+        <v>2805</v>
+      </c>
+      <c r="AC16" s="56">
+        <v>2619</v>
+      </c>
+      <c r="AD16" s="56">
+        <v>2883</v>
+      </c>
+      <c r="AE16" s="56">
+        <v>3654</v>
+      </c>
+      <c r="AF16" s="56">
+        <v>6594</v>
+      </c>
+      <c r="AG16" s="56">
+        <v>9399</v>
+      </c>
+      <c r="AH16" s="56">
+        <v>13488</v>
+      </c>
+      <c r="AI16" s="56">
+        <v>23322</v>
+      </c>
+      <c r="AJ16" s="56">
+        <v>32865</v>
+      </c>
+      <c r="AK16" s="56">
+        <v>20874</v>
+      </c>
+      <c r="AL16" s="56">
+        <v>20634</v>
+      </c>
+      <c r="AM16" s="56">
+        <v>19488</v>
+      </c>
+      <c r="AN16" s="56">
+        <v>22491</v>
+      </c>
+      <c r="AO16" s="56">
+        <v>24177</v>
+      </c>
+      <c r="AP16" s="56">
+        <v>21012</v>
+      </c>
+      <c r="AQ16" s="56">
+        <v>14490</v>
+      </c>
+      <c r="AR16" s="56">
+        <v>258</v>
+      </c>
+      <c r="AS16" s="55">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="55">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="55">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="55">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53">
+      <c r="A17" s="22"/>
+      <c r="B17" s="52">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5659911</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>3</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3</v>
+      </c>
+      <c r="I17" s="8">
+        <v>3</v>
+      </c>
+      <c r="J17" s="8">
+        <v>3</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>3</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>12</v>
+      </c>
+      <c r="O17" s="8">
+        <v>39</v>
+      </c>
+      <c r="P17" s="8">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="8">
         <v>45</v>
       </c>
-      <c r="AB5" s="45">
-        <v>369</v>
-      </c>
-      <c r="AC5" s="45">
-        <v>900</v>
-      </c>
-      <c r="AD5" s="45">
-        <v>2007</v>
-      </c>
-      <c r="AE5" s="45">
-        <v>10185</v>
-      </c>
-      <c r="AF5" s="45">
-        <v>19884</v>
-      </c>
-      <c r="AG5" s="45">
-        <v>27591</v>
-      </c>
-      <c r="AH5" s="45">
-        <v>38193</v>
-      </c>
-      <c r="AI5" s="45">
-        <v>39960</v>
-      </c>
-      <c r="AJ5" s="45">
-        <v>50376</v>
-      </c>
-      <c r="AK5" s="45">
-        <v>53457</v>
-      </c>
-      <c r="AL5" s="45">
-        <v>83187</v>
-      </c>
-      <c r="AM5" s="45">
-        <v>87684</v>
-      </c>
-      <c r="AN5" s="45">
-        <v>96792</v>
-      </c>
-      <c r="AO5" s="45">
-        <v>115146</v>
-      </c>
-      <c r="AP5" s="45">
-        <v>102303</v>
-      </c>
-      <c r="AQ5" s="45">
-        <v>62847</v>
-      </c>
-      <c r="AR5" s="47">
-        <v>1035</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53">
-      <c r="A6" s="58"/>
-      <c r="B6" s="19">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>5861466</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>24</v>
-      </c>
-      <c r="M6">
-        <v>45</v>
-      </c>
-      <c r="N6">
+      <c r="R17" s="8">
         <v>66</v>
       </c>
-      <c r="O6">
-        <v>99</v>
-      </c>
-      <c r="P6">
-        <v>129</v>
-      </c>
-      <c r="Q6">
-        <v>87</v>
-      </c>
-      <c r="R6">
-        <v>138</v>
-      </c>
-      <c r="S6">
-        <v>189</v>
-      </c>
-      <c r="T6">
+      <c r="S17" s="8">
+        <v>60</v>
+      </c>
+      <c r="T17" s="8">
+        <v>147</v>
+      </c>
+      <c r="U17" s="8">
         <v>219</v>
       </c>
-      <c r="U6">
-        <v>171</v>
-      </c>
-      <c r="V6">
-        <v>36</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="45">
-        <v>33</v>
-      </c>
-      <c r="AA6" s="45">
-        <v>273</v>
-      </c>
-      <c r="AB6" s="45">
-        <v>789</v>
-      </c>
-      <c r="AC6" s="45">
-        <v>1251</v>
-      </c>
-      <c r="AD6" s="45">
-        <v>2646</v>
-      </c>
-      <c r="AE6" s="45">
-        <v>3183</v>
-      </c>
-      <c r="AF6" s="45">
-        <v>2985</v>
-      </c>
-      <c r="AG6" s="45">
-        <v>3042</v>
-      </c>
-      <c r="AH6" s="45">
-        <v>4125</v>
-      </c>
-      <c r="AI6" s="45">
-        <v>4116</v>
-      </c>
-      <c r="AJ6" s="45">
-        <v>6744</v>
-      </c>
-      <c r="AK6" s="45">
-        <v>13401</v>
-      </c>
-      <c r="AL6" s="45">
-        <v>22899</v>
-      </c>
-      <c r="AM6" s="45">
-        <v>27789</v>
-      </c>
-      <c r="AN6" s="45">
-        <v>48195</v>
-      </c>
-      <c r="AO6" s="45">
-        <v>72021</v>
-      </c>
-      <c r="AP6" s="45">
-        <v>82953</v>
-      </c>
-      <c r="AQ6" s="45">
-        <v>60855</v>
-      </c>
-      <c r="AR6" s="47">
-        <v>810</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
-      <c r="A7" s="58"/>
-      <c r="B7" s="19">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5908230</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>15</v>
-      </c>
-      <c r="J7">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>21</v>
-      </c>
-      <c r="L7">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>33</v>
-      </c>
-      <c r="N7">
-        <v>57</v>
-      </c>
-      <c r="O7">
-        <v>93</v>
-      </c>
-      <c r="P7">
-        <v>165</v>
-      </c>
-      <c r="Q7">
-        <v>276</v>
-      </c>
-      <c r="R7">
-        <v>381</v>
-      </c>
-      <c r="S7">
-        <v>534</v>
-      </c>
-      <c r="T7">
-        <v>720</v>
-      </c>
-      <c r="U7">
-        <v>1161</v>
-      </c>
-      <c r="V7">
-        <v>1818</v>
-      </c>
-      <c r="W7">
-        <v>2778</v>
-      </c>
-      <c r="X7">
-        <v>3690</v>
-      </c>
-      <c r="Y7" s="46">
-        <v>4143</v>
-      </c>
-      <c r="Z7" s="45">
-        <v>4605</v>
-      </c>
-      <c r="AA7" s="45">
-        <v>5592</v>
-      </c>
-      <c r="AB7" s="45">
-        <v>8994</v>
-      </c>
-      <c r="AC7" s="45">
-        <v>9378</v>
-      </c>
-      <c r="AD7" s="45">
-        <v>14685</v>
-      </c>
-      <c r="AE7" s="45">
-        <v>13740</v>
-      </c>
-      <c r="AF7" s="45">
-        <v>15867</v>
-      </c>
-      <c r="AG7" s="45">
-        <v>19236</v>
-      </c>
-      <c r="AH7" s="45">
-        <v>21837</v>
-      </c>
-      <c r="AI7" s="45">
-        <v>22362</v>
-      </c>
-      <c r="AJ7" s="45">
-        <v>25977</v>
-      </c>
-      <c r="AK7" s="45">
-        <v>32052</v>
-      </c>
-      <c r="AL7" s="45">
-        <v>14775</v>
-      </c>
-      <c r="AM7" s="45">
-        <v>13359</v>
-      </c>
-      <c r="AN7" s="45">
-        <v>16686</v>
-      </c>
-      <c r="AO7" s="45">
-        <v>15447</v>
-      </c>
-      <c r="AP7" s="45">
-        <v>17835</v>
-      </c>
-      <c r="AQ7" s="45">
-        <v>24168</v>
-      </c>
-      <c r="AR7" s="47">
-        <v>42</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
-      <c r="A8" s="58"/>
-      <c r="B8" s="19">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>5575407</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <v>24</v>
-      </c>
-      <c r="L8">
-        <v>36</v>
-      </c>
-      <c r="M8">
-        <v>36</v>
-      </c>
-      <c r="N8">
-        <v>15</v>
-      </c>
-      <c r="O8">
-        <v>33</v>
-      </c>
-      <c r="P8">
-        <v>18</v>
-      </c>
-      <c r="Q8">
-        <v>66</v>
-      </c>
-      <c r="R8">
-        <v>153</v>
-      </c>
-      <c r="S8">
-        <v>141</v>
-      </c>
-      <c r="T8">
-        <v>174</v>
-      </c>
-      <c r="U8">
-        <v>234</v>
-      </c>
-      <c r="V8">
-        <v>321</v>
-      </c>
-      <c r="W8">
-        <v>423</v>
-      </c>
-      <c r="X8">
-        <v>600</v>
-      </c>
-      <c r="Y8" s="46">
-        <v>783</v>
-      </c>
-      <c r="Z8" s="45">
-        <v>945</v>
-      </c>
-      <c r="AA8" s="45">
+      <c r="V17" s="8">
+        <v>300</v>
+      </c>
+      <c r="W17" s="8">
+        <v>393</v>
+      </c>
+      <c r="X17" s="8">
+        <v>630</v>
+      </c>
+      <c r="Y17" s="46">
+        <v>765</v>
+      </c>
+      <c r="Z17" s="46">
+        <v>948</v>
+      </c>
+      <c r="AA17" s="46">
+        <v>1236</v>
+      </c>
+      <c r="AB17" s="46">
+        <v>2091</v>
+      </c>
+      <c r="AC17" s="46">
+        <v>2208</v>
+      </c>
+      <c r="AD17" s="46">
+        <v>2916</v>
+      </c>
+      <c r="AE17" s="46">
+        <v>3684</v>
+      </c>
+      <c r="AF17" s="46">
+        <v>4647</v>
+      </c>
+      <c r="AG17" s="46">
+        <v>6183</v>
+      </c>
+      <c r="AH17" s="46">
+        <v>7902</v>
+      </c>
+      <c r="AI17" s="46">
+        <v>10431</v>
+      </c>
+      <c r="AJ17" s="46">
+        <v>13887</v>
+      </c>
+      <c r="AK17" s="46">
+        <v>19059</v>
+      </c>
+      <c r="AL17" s="46">
+        <v>33129</v>
+      </c>
+      <c r="AM17" s="46">
+        <v>44490</v>
+      </c>
+      <c r="AN17" s="46">
+        <v>68196</v>
+      </c>
+      <c r="AO17" s="46">
+        <v>83412</v>
+      </c>
+      <c r="AP17" s="46">
+        <v>119613</v>
+      </c>
+      <c r="AQ17" s="46">
+        <v>132912</v>
+      </c>
+      <c r="AR17" s="46">
         <v>1206</v>
       </c>
-      <c r="AB8" s="45">
-        <v>1938</v>
-      </c>
-      <c r="AC8" s="45">
-        <v>2283</v>
-      </c>
-      <c r="AD8" s="45">
-        <v>3138</v>
-      </c>
-      <c r="AE8" s="45">
-        <v>4482</v>
-      </c>
-      <c r="AF8" s="45">
-        <v>6726</v>
-      </c>
-      <c r="AG8" s="45">
-        <v>10029</v>
-      </c>
-      <c r="AH8" s="45">
-        <v>11541</v>
-      </c>
-      <c r="AI8" s="45">
-        <v>13848</v>
-      </c>
-      <c r="AJ8" s="45">
-        <v>18030</v>
-      </c>
-      <c r="AK8" s="45">
-        <v>23208</v>
-      </c>
-      <c r="AL8" s="45">
-        <v>36228</v>
-      </c>
-      <c r="AM8" s="45">
-        <v>41673</v>
-      </c>
-      <c r="AN8" s="45">
-        <v>57783</v>
-      </c>
-      <c r="AO8" s="45">
-        <v>85827</v>
-      </c>
-      <c r="AP8" s="45">
-        <v>132150</v>
-      </c>
-      <c r="AQ8" s="45">
-        <v>189495</v>
-      </c>
-      <c r="AR8" s="47">
-        <v>1740</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53">
-      <c r="A9" s="58"/>
-      <c r="B9" s="19">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>5746935</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <v>39</v>
-      </c>
-      <c r="K9">
-        <v>93</v>
-      </c>
-      <c r="L9">
-        <v>90</v>
-      </c>
-      <c r="M9">
-        <v>147</v>
-      </c>
-      <c r="N9">
-        <v>210</v>
-      </c>
-      <c r="O9">
-        <v>285</v>
-      </c>
-      <c r="P9">
-        <v>363</v>
-      </c>
-      <c r="Q9">
-        <v>453</v>
-      </c>
-      <c r="R9">
-        <v>621</v>
-      </c>
-      <c r="S9">
-        <v>624</v>
-      </c>
-      <c r="T9">
-        <v>681</v>
-      </c>
-      <c r="U9">
-        <v>741</v>
-      </c>
-      <c r="V9">
-        <v>819</v>
-      </c>
-      <c r="W9">
-        <v>780</v>
-      </c>
-      <c r="X9">
-        <v>705</v>
-      </c>
-      <c r="Y9" s="46">
-        <v>726</v>
-      </c>
-      <c r="Z9" s="45">
-        <v>663</v>
-      </c>
-      <c r="AA9" s="45">
-        <v>522</v>
-      </c>
-      <c r="AB9" s="45">
-        <v>690</v>
-      </c>
-      <c r="AC9" s="45">
-        <v>654</v>
-      </c>
-      <c r="AD9" s="45">
-        <v>519</v>
-      </c>
-      <c r="AE9" s="45">
-        <v>552</v>
-      </c>
-      <c r="AF9" s="45">
-        <v>681</v>
-      </c>
-      <c r="AG9" s="45">
-        <v>687</v>
-      </c>
-      <c r="AH9" s="45">
-        <v>1197</v>
-      </c>
-      <c r="AI9" s="45">
-        <v>1818</v>
-      </c>
-      <c r="AJ9" s="45">
-        <v>2784</v>
-      </c>
-      <c r="AK9" s="45">
-        <v>4257</v>
-      </c>
-      <c r="AL9" s="45">
-        <v>9225</v>
-      </c>
-      <c r="AM9" s="45">
-        <v>16671</v>
-      </c>
-      <c r="AN9" s="45">
-        <v>36699</v>
-      </c>
-      <c r="AO9" s="45">
-        <v>87156</v>
-      </c>
-      <c r="AP9" s="45">
-        <v>153768</v>
-      </c>
-      <c r="AQ9" s="45">
-        <v>146343</v>
-      </c>
-      <c r="AR9" s="47">
-        <v>1581</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="A10" s="58"/>
-      <c r="B10" s="19">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>6014433</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
-      <c r="I10">
-        <v>24</v>
-      </c>
-      <c r="J10">
-        <v>33</v>
-      </c>
-      <c r="K10">
-        <v>54</v>
-      </c>
-      <c r="L10">
-        <v>81</v>
-      </c>
-      <c r="M10">
-        <v>90</v>
-      </c>
-      <c r="N10">
-        <v>114</v>
-      </c>
-      <c r="O10">
-        <v>153</v>
-      </c>
-      <c r="P10">
-        <v>144</v>
-      </c>
-      <c r="Q10">
-        <v>216</v>
-      </c>
-      <c r="R10">
-        <v>243</v>
-      </c>
-      <c r="S10">
-        <v>276</v>
-      </c>
-      <c r="T10">
-        <v>288</v>
-      </c>
-      <c r="U10">
-        <v>297</v>
-      </c>
-      <c r="V10">
-        <v>357</v>
-      </c>
-      <c r="W10">
-        <v>360</v>
-      </c>
-      <c r="X10">
-        <v>435</v>
-      </c>
-      <c r="Y10" s="46">
-        <v>459</v>
-      </c>
-      <c r="Z10" s="45">
-        <v>531</v>
-      </c>
-      <c r="AA10" s="45">
-        <v>621</v>
-      </c>
-      <c r="AB10" s="45">
-        <v>810</v>
-      </c>
-      <c r="AC10" s="45">
-        <v>825</v>
-      </c>
-      <c r="AD10" s="45">
-        <v>996</v>
-      </c>
-      <c r="AE10" s="45">
-        <v>1167</v>
-      </c>
-      <c r="AF10" s="45">
-        <v>1377</v>
-      </c>
-      <c r="AG10" s="45">
-        <v>1572</v>
-      </c>
-      <c r="AH10" s="45">
-        <v>1632</v>
-      </c>
-      <c r="AI10" s="45">
-        <v>2193</v>
-      </c>
-      <c r="AJ10" s="45">
-        <v>3996</v>
-      </c>
-      <c r="AK10" s="45">
-        <v>6504</v>
-      </c>
-      <c r="AL10" s="45">
-        <v>15504</v>
-      </c>
-      <c r="AM10" s="45">
-        <v>18927</v>
-      </c>
-      <c r="AN10" s="45">
-        <v>14136</v>
-      </c>
-      <c r="AO10" s="45">
-        <v>21051</v>
-      </c>
-      <c r="AP10" s="45">
-        <v>54135</v>
-      </c>
-      <c r="AQ10" s="45">
-        <v>56430</v>
-      </c>
-      <c r="AR10" s="47">
-        <v>297</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="58"/>
-      <c r="B11" s="19">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>5642202</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
-      <c r="O11">
-        <v>21</v>
-      </c>
-      <c r="P11">
-        <v>3</v>
-      </c>
-      <c r="Q11">
-        <v>15</v>
-      </c>
-      <c r="R11">
-        <v>30</v>
-      </c>
-      <c r="S11">
-        <v>24</v>
-      </c>
-      <c r="T11">
-        <v>30</v>
-      </c>
-      <c r="U11">
-        <v>45</v>
-      </c>
-      <c r="V11">
-        <v>60</v>
-      </c>
-      <c r="W11">
-        <v>96</v>
-      </c>
-      <c r="X11">
-        <v>126</v>
-      </c>
-      <c r="Y11" s="46">
-        <v>153</v>
-      </c>
-      <c r="Z11" s="45">
-        <v>219</v>
-      </c>
-      <c r="AA11" s="45">
-        <v>258</v>
-      </c>
-      <c r="AB11" s="45">
-        <v>480</v>
-      </c>
-      <c r="AC11" s="45">
-        <v>663</v>
-      </c>
-      <c r="AD11" s="45">
-        <v>903</v>
-      </c>
-      <c r="AE11" s="45">
-        <v>1116</v>
-      </c>
-      <c r="AF11" s="45">
-        <v>1434</v>
-      </c>
-      <c r="AG11" s="45">
-        <v>1749</v>
-      </c>
-      <c r="AH11" s="45">
-        <v>2913</v>
-      </c>
-      <c r="AI11" s="45">
-        <v>4491</v>
-      </c>
-      <c r="AJ11" s="45">
-        <v>7227</v>
-      </c>
-      <c r="AK11" s="45">
-        <v>12756</v>
-      </c>
-      <c r="AL11" s="45">
-        <v>28077</v>
-      </c>
-      <c r="AM11" s="45">
-        <v>65586</v>
-      </c>
-      <c r="AN11" s="45">
-        <v>107610</v>
-      </c>
-      <c r="AO11" s="45">
-        <v>169998</v>
-      </c>
-      <c r="AP11" s="45">
-        <v>156396</v>
-      </c>
-      <c r="AQ11" s="45">
-        <v>16059</v>
-      </c>
-      <c r="AR11" s="47">
-        <v>36</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="58"/>
-      <c r="B12" s="19">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>6007881</v>
-      </c>
-      <c r="D12">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>39</v>
-      </c>
-      <c r="F12">
-        <v>66</v>
-      </c>
-      <c r="G12">
-        <v>72</v>
-      </c>
-      <c r="H12">
-        <v>147</v>
-      </c>
-      <c r="I12">
-        <v>144</v>
-      </c>
-      <c r="J12">
-        <v>201</v>
-      </c>
-      <c r="K12">
-        <v>255</v>
-      </c>
-      <c r="L12">
-        <v>324</v>
-      </c>
-      <c r="M12">
-        <v>384</v>
-      </c>
-      <c r="N12">
-        <v>465</v>
-      </c>
-      <c r="O12">
-        <v>723</v>
-      </c>
-      <c r="P12">
-        <v>675</v>
-      </c>
-      <c r="Q12">
-        <v>567</v>
-      </c>
-      <c r="R12">
-        <v>627</v>
-      </c>
-      <c r="S12">
-        <v>519</v>
-      </c>
-      <c r="T12">
-        <v>405</v>
-      </c>
-      <c r="U12">
-        <v>345</v>
-      </c>
-      <c r="V12">
-        <v>132</v>
-      </c>
-      <c r="W12">
-        <v>84</v>
-      </c>
-      <c r="X12">
-        <v>72</v>
-      </c>
-      <c r="Y12" s="46">
-        <v>51</v>
-      </c>
-      <c r="Z12" s="45">
-        <v>114</v>
-      </c>
-      <c r="AA12" s="45">
-        <v>336</v>
-      </c>
-      <c r="AB12" s="45">
-        <v>1041</v>
-      </c>
-      <c r="AC12" s="45">
-        <v>1524</v>
-      </c>
-      <c r="AD12" s="45">
-        <v>2340</v>
-      </c>
-      <c r="AE12" s="45">
-        <v>4089</v>
-      </c>
-      <c r="AF12" s="45">
-        <v>8661</v>
-      </c>
-      <c r="AG12" s="45">
-        <v>6804</v>
-      </c>
-      <c r="AH12" s="45">
-        <v>5556</v>
-      </c>
-      <c r="AI12" s="45">
-        <v>8727</v>
-      </c>
-      <c r="AJ12" s="45">
-        <v>9624</v>
-      </c>
-      <c r="AK12" s="45">
-        <v>13248</v>
-      </c>
-      <c r="AL12" s="45">
-        <v>17871</v>
-      </c>
-      <c r="AM12" s="45">
-        <v>41505</v>
-      </c>
-      <c r="AN12" s="45">
-        <v>30234</v>
-      </c>
-      <c r="AO12" s="45">
-        <v>29877</v>
-      </c>
-      <c r="AP12" s="45">
-        <v>15603</v>
-      </c>
-      <c r="AQ12" s="45">
-        <v>9423</v>
-      </c>
-      <c r="AR12" s="47">
-        <v>27</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="58"/>
-      <c r="B13" s="19">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>5708397</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>45</v>
-      </c>
-      <c r="F13">
-        <v>21</v>
-      </c>
-      <c r="G13">
-        <v>90</v>
-      </c>
-      <c r="H13">
-        <v>66</v>
-      </c>
-      <c r="I13">
-        <v>132</v>
-      </c>
-      <c r="J13">
-        <v>162</v>
-      </c>
-      <c r="K13">
-        <v>186</v>
-      </c>
-      <c r="L13">
-        <v>267</v>
-      </c>
-      <c r="M13">
-        <v>327</v>
-      </c>
-      <c r="N13">
-        <v>408</v>
-      </c>
-      <c r="O13">
-        <v>477</v>
-      </c>
-      <c r="P13">
-        <v>594</v>
-      </c>
-      <c r="Q13">
-        <v>675</v>
-      </c>
-      <c r="R13">
-        <v>1008</v>
-      </c>
-      <c r="S13">
-        <v>1476</v>
-      </c>
-      <c r="T13">
-        <v>2385</v>
-      </c>
-      <c r="U13">
-        <v>1560</v>
-      </c>
-      <c r="V13">
-        <v>1194</v>
-      </c>
-      <c r="W13">
-        <v>1065</v>
-      </c>
-      <c r="X13">
-        <v>957</v>
-      </c>
-      <c r="Y13" s="46">
-        <v>705</v>
-      </c>
-      <c r="Z13" s="45">
-        <v>543</v>
-      </c>
-      <c r="AA13" s="45">
-        <v>645</v>
-      </c>
-      <c r="AB13" s="45">
-        <v>969</v>
-      </c>
-      <c r="AC13" s="45">
-        <v>1047</v>
-      </c>
-      <c r="AD13" s="45">
-        <v>840</v>
-      </c>
-      <c r="AE13" s="45">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="45">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="45">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="45">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="45">
-        <v>12</v>
-      </c>
-      <c r="AK13" s="45">
-        <v>102</v>
-      </c>
-      <c r="AL13" s="45">
-        <v>8031</v>
-      </c>
-      <c r="AM13" s="45">
-        <v>12927</v>
-      </c>
-      <c r="AN13" s="45">
-        <v>36036</v>
-      </c>
-      <c r="AO13" s="45">
-        <v>80724</v>
-      </c>
-      <c r="AP13" s="45">
-        <v>165849</v>
-      </c>
-      <c r="AQ13" s="45">
-        <v>190725</v>
-      </c>
-      <c r="AR13" s="47">
-        <v>153</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="58"/>
-      <c r="B14" s="19">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>5959452</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14">
-        <v>27</v>
-      </c>
-      <c r="I14">
-        <v>33</v>
-      </c>
-      <c r="J14">
-        <v>48</v>
-      </c>
-      <c r="K14">
-        <v>66</v>
-      </c>
-      <c r="L14">
-        <v>135</v>
-      </c>
-      <c r="M14">
-        <v>150</v>
-      </c>
-      <c r="N14">
-        <v>216</v>
-      </c>
-      <c r="O14">
-        <v>339</v>
-      </c>
-      <c r="P14">
-        <v>519</v>
-      </c>
-      <c r="Q14">
-        <v>822</v>
-      </c>
-      <c r="R14">
-        <v>1359</v>
-      </c>
-      <c r="S14">
-        <v>1680</v>
-      </c>
-      <c r="T14">
-        <v>2490</v>
-      </c>
-      <c r="U14">
-        <v>1560</v>
-      </c>
-      <c r="V14">
-        <v>1287</v>
-      </c>
-      <c r="W14">
-        <v>1578</v>
-      </c>
-      <c r="X14">
-        <v>1794</v>
-      </c>
-      <c r="Y14" s="46">
-        <v>1920</v>
-      </c>
-      <c r="Z14" s="45">
-        <v>2055</v>
-      </c>
-      <c r="AA14" s="45">
-        <v>2202</v>
-      </c>
-      <c r="AB14" s="45">
-        <v>2805</v>
-      </c>
-      <c r="AC14" s="45">
-        <v>2619</v>
-      </c>
-      <c r="AD14" s="45">
-        <v>2883</v>
-      </c>
-      <c r="AE14" s="45">
-        <v>3654</v>
-      </c>
-      <c r="AF14" s="45">
-        <v>6594</v>
-      </c>
-      <c r="AG14" s="45">
-        <v>9399</v>
-      </c>
-      <c r="AH14" s="45">
-        <v>13488</v>
-      </c>
-      <c r="AI14" s="45">
-        <v>23322</v>
-      </c>
-      <c r="AJ14" s="45">
-        <v>32865</v>
-      </c>
-      <c r="AK14" s="45">
-        <v>20874</v>
-      </c>
-      <c r="AL14" s="45">
-        <v>20634</v>
-      </c>
-      <c r="AM14" s="45">
-        <v>19488</v>
-      </c>
-      <c r="AN14" s="45">
-        <v>22491</v>
-      </c>
-      <c r="AO14" s="45">
-        <v>24177</v>
-      </c>
-      <c r="AP14" s="45">
-        <v>21012</v>
-      </c>
-      <c r="AQ14" s="45">
-        <v>14490</v>
-      </c>
-      <c r="AR14" s="47">
-        <v>258</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="59"/>
-      <c r="B15" s="15">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>5659911</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>12</v>
-      </c>
-      <c r="O15">
-        <v>39</v>
-      </c>
-      <c r="P15">
-        <v>48</v>
-      </c>
-      <c r="Q15">
-        <v>45</v>
-      </c>
-      <c r="R15">
-        <v>66</v>
-      </c>
-      <c r="S15">
-        <v>60</v>
-      </c>
-      <c r="T15">
-        <v>147</v>
-      </c>
-      <c r="U15">
-        <v>219</v>
-      </c>
-      <c r="V15">
-        <v>300</v>
-      </c>
-      <c r="W15">
-        <v>393</v>
-      </c>
-      <c r="X15">
-        <v>630</v>
-      </c>
-      <c r="Y15" s="50">
-        <v>765</v>
-      </c>
-      <c r="Z15" s="49">
-        <v>948</v>
-      </c>
-      <c r="AA15" s="49">
-        <v>1236</v>
-      </c>
-      <c r="AB15" s="49">
-        <v>2091</v>
-      </c>
-      <c r="AC15" s="49">
-        <v>2208</v>
-      </c>
-      <c r="AD15" s="49">
-        <v>2916</v>
-      </c>
-      <c r="AE15" s="49">
-        <v>3684</v>
-      </c>
-      <c r="AF15" s="49">
-        <v>4647</v>
-      </c>
-      <c r="AG15" s="49">
-        <v>6183</v>
-      </c>
-      <c r="AH15" s="49">
-        <v>7902</v>
-      </c>
-      <c r="AI15" s="49">
-        <v>10431</v>
-      </c>
-      <c r="AJ15" s="49">
-        <v>13887</v>
-      </c>
-      <c r="AK15" s="49">
-        <v>19059</v>
-      </c>
-      <c r="AL15" s="49">
-        <v>33129</v>
-      </c>
-      <c r="AM15" s="49">
-        <v>44490</v>
-      </c>
-      <c r="AN15" s="49">
-        <v>68196</v>
-      </c>
-      <c r="AO15" s="49">
-        <v>83412</v>
-      </c>
-      <c r="AP15" s="49">
-        <v>119613</v>
-      </c>
-      <c r="AQ15" s="49">
-        <v>132912</v>
-      </c>
-      <c r="AR15" s="51">
-        <v>1206</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" s="4" customFormat="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
-      <c r="AK16"/>
-      <c r="AL16"/>
-      <c r="AM16"/>
-      <c r="AN16"/>
-      <c r="AO16"/>
-      <c r="AP16"/>
-      <c r="AQ16"/>
-      <c r="AR16"/>
+      <c r="AS17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5086,10 +5397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
-  <dimension ref="A2:L79"/>
+  <dimension ref="A2:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5129,7 +5440,7 @@
       </c>
       <c r="I2">
         <f>AVERAGE(Table9[visible range])</f>
-        <v>135.82561538461539</v>
+        <v>132.48220666666666</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1">
@@ -5153,7 +5464,7 @@
         <v>179.68</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G15" si="0">F3-C3</f>
+        <f t="shared" ref="G3:G14" si="0">F3-C3</f>
         <v>179.68</v>
       </c>
     </row>
@@ -5433,1479 +5744,1529 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="35">
-        <v>0</v>
-      </c>
-      <c r="D15" s="36">
+      <c r="C15" s="32">
+        <v>0</v>
+      </c>
+      <c r="D15" s="33">
         <v>132.87200000000001</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="31">
         <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
         <v>132.87200000000001</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="31">
         <v>59.991999999999997</v>
       </c>
       <c r="G15" s="30">
-        <f t="shared" si="0"/>
+        <f>F15-C15</f>
         <v>59.991999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A17" s="37" t="s">
+      <c r="A16" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0</v>
+      </c>
+      <c r="D16" s="33">
+        <v>148.81100000000001</v>
+      </c>
+      <c r="E16" s="33">
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>148.81100000000001</v>
+      </c>
+      <c r="F16" s="31">
+        <v>136.40899999999999</v>
+      </c>
+      <c r="G16" s="30">
+        <f>F16-C16</f>
+        <v>136.40899999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="35">
+        <v>0</v>
+      </c>
+      <c r="D17" s="36">
+        <v>96.621099999999998</v>
+      </c>
+      <c r="E17" s="33">
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>96.621099999999998</v>
+      </c>
+      <c r="F17" s="34">
+        <v>85.091099999999997</v>
+      </c>
+      <c r="G17" s="30">
+        <f>F17-C17</f>
+        <v>85.091099999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A19" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B19" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D19" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F19" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G19" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="I17">
+      <c r="I19">
         <f>AVERAGE(Table2[visible range])</f>
         <v>116.9800588235294</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K19" t="s">
         <v>177</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A18" s="30" t="s">
+    <row r="20" spans="1:12" ht="15.75" thickTop="1">
+      <c r="A20" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B20" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="32">
-        <v>0</v>
-      </c>
-      <c r="D18" s="33">
+      <c r="C20" s="32">
+        <v>0</v>
+      </c>
+      <c r="D20" s="33">
         <v>88.817499999999995</v>
       </c>
-      <c r="E18" s="31">
-        <f t="shared" ref="E18:E34" si="1">D18-C18</f>
+      <c r="E20" s="31">
+        <f t="shared" ref="E20:E36" si="1">D20-C20</f>
         <v>88.817499999999995</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F20" s="31">
         <v>81.344200000000001</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G20" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>81.344200000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="30" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B21" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="32">
-        <v>0</v>
-      </c>
-      <c r="D19" s="33">
+      <c r="C21" s="32">
+        <v>0</v>
+      </c>
+      <c r="D21" s="33">
         <v>96.592500000000001</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E21" s="31">
         <f t="shared" si="1"/>
         <v>96.592500000000001</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F21" s="31">
         <v>77.637799999999999</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G21" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>77.637799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="30" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B22" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="32">
-        <v>0</v>
-      </c>
-      <c r="D20" s="33">
+      <c r="C22" s="32">
+        <v>0</v>
+      </c>
+      <c r="D22" s="33">
         <v>150.417</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E22" s="31">
         <f t="shared" si="1"/>
         <v>150.417</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F22" s="31">
         <v>125.315</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G22" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>125.315</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="30" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B23" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="32">
-        <v>0</v>
-      </c>
-      <c r="D21" s="33">
+      <c r="C23" s="32">
+        <v>0</v>
+      </c>
+      <c r="D23" s="33">
         <v>132.83000000000001</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E23" s="31">
         <f t="shared" si="1"/>
         <v>132.83000000000001</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F23" s="31">
         <v>101.886</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G23" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>101.886</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="30" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B24" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="32">
-        <v>0</v>
-      </c>
-      <c r="D22" s="33">
+      <c r="C24" s="32">
+        <v>0</v>
+      </c>
+      <c r="D24" s="33">
         <v>106.654</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E24" s="31">
         <f t="shared" si="1"/>
         <v>106.654</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F24" s="31">
         <v>88.513000000000005</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G24" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>88.513000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="30" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B25" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="32">
-        <v>0</v>
-      </c>
-      <c r="D23" s="33">
+      <c r="C25" s="32">
+        <v>0</v>
+      </c>
+      <c r="D25" s="33">
         <v>113.319</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E25" s="31">
         <f t="shared" si="1"/>
         <v>113.319</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F25" s="31">
         <v>99.578999999999994</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G25" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>99.578999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="30" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B26" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="32">
-        <v>0</v>
-      </c>
-      <c r="D24" s="33">
+      <c r="C26" s="32">
+        <v>0</v>
+      </c>
+      <c r="D26" s="33">
         <v>208.46700000000001</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E26" s="31">
         <f t="shared" si="1"/>
         <v>208.46700000000001</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F26" s="31">
         <v>156.11000000000001</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G26" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>156.11000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="30" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B27" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="32">
-        <v>0</v>
-      </c>
-      <c r="D25" s="33">
+      <c r="C27" s="32">
+        <v>0</v>
+      </c>
+      <c r="D27" s="33">
         <v>121</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E27" s="31">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F27" s="31">
         <v>107.764</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G27" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>107.764</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="30" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B28" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="32">
-        <v>0</v>
-      </c>
-      <c r="D26" s="33">
+      <c r="C28" s="32">
+        <v>0</v>
+      </c>
+      <c r="D28" s="33">
         <v>145.60900000000001</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E28" s="31">
         <f t="shared" si="1"/>
         <v>145.60900000000001</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F28" s="31">
         <v>106.78700000000001</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G28" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>106.78700000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="30" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B29" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="32">
-        <v>0</v>
-      </c>
-      <c r="D27" s="33">
+      <c r="C29" s="32">
+        <v>0</v>
+      </c>
+      <c r="D29" s="33">
         <v>157.05500000000001</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E29" s="31">
         <f t="shared" si="1"/>
         <v>157.05500000000001</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F29" s="31">
         <v>127.191</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G29" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>127.191</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="30" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B30" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="32">
-        <v>0</v>
-      </c>
-      <c r="D28" s="33">
+      <c r="C30" s="32">
+        <v>0</v>
+      </c>
+      <c r="D30" s="33">
         <v>180.14699999999999</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E30" s="31">
         <f t="shared" si="1"/>
         <v>180.14699999999999</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F30" s="31">
         <v>156.33000000000001</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G30" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>156.33000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="30" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B31" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="32">
-        <v>0</v>
-      </c>
-      <c r="D29" s="33">
+      <c r="C31" s="32">
+        <v>0</v>
+      </c>
+      <c r="D31" s="33">
         <v>141.886</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E31" s="31">
         <f t="shared" si="1"/>
         <v>141.886</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F31" s="31">
         <v>128.45099999999999</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G31" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>128.45099999999999</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L31" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="30" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B32" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="32">
-        <v>0</v>
-      </c>
-      <c r="D30" s="33">
+      <c r="C32" s="32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="33">
         <v>200.63</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E32" s="31">
         <f t="shared" si="1"/>
         <v>200.63</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F32" s="31">
         <v>183.58</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G32" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>183.58</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L32" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="30" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B33" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="32">
-        <v>0</v>
-      </c>
-      <c r="D31" s="33">
+      <c r="C33" s="32">
+        <v>0</v>
+      </c>
+      <c r="D33" s="33">
         <v>133.27600000000001</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E33" s="31">
         <f t="shared" si="1"/>
         <v>133.27600000000001</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F33" s="31">
         <v>119.952</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G33" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>119.952</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="30" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B34" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="33">
+      <c r="C34" s="32">
+        <v>0</v>
+      </c>
+      <c r="D34" s="33">
         <v>137.524</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E34" s="31">
         <f t="shared" si="1"/>
         <v>137.524</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F34" s="31">
         <v>115.895</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G34" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>115.895</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="30" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B35" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="32">
-        <v>0</v>
-      </c>
-      <c r="D33" s="33">
+      <c r="C35" s="32">
+        <v>0</v>
+      </c>
+      <c r="D35" s="33">
         <v>131.06399999999999</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E35" s="31">
         <f t="shared" si="1"/>
         <v>131.06399999999999</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F35" s="31">
         <v>108.029</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G35" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>108.029</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="30" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B36" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="32">
-        <v>0</v>
-      </c>
-      <c r="D34" s="33">
+      <c r="C36" s="32">
+        <v>0</v>
+      </c>
+      <c r="D36" s="33">
         <v>145.43100000000001</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E36" s="31">
         <f t="shared" si="1"/>
         <v>145.43100000000001</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F36" s="34">
         <v>104.297</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G36" s="36">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>104.297</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A36" s="37" t="s">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A38" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B38" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C38" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D38" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E38" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F38" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G38" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H38" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A37" t="s">
+    <row r="39" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A39" t="s">
         <v>48</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C39" s="6">
         <v>-0.28106999999999999</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D39" s="2">
         <v>267.87</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>268.15107</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F39" s="17">
         <v>179.89</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>180.17106999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C40" s="6">
         <v>-6.3395999999999999</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="2">
         <v>218.51</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>224.84959999999998</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F40" s="17">
         <v>151.24</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>157.5796</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C41" s="6">
         <v>12.791</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D41" s="2">
         <v>277.73</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>264.93900000000002</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F41" s="17">
         <v>123.95</v>
       </c>
-      <c r="G39">
+      <c r="G41">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>111.15900000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
         <v>51</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C42" s="6">
         <v>18.2</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D42" s="2">
         <v>283.26</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>265.06</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F42" s="17">
         <v>163.76</v>
       </c>
-      <c r="G40">
+      <c r="G42">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>145.56</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
         <v>52</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C43" s="6">
         <v>-11.695</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D43" s="2">
         <v>287.24</v>
       </c>
-      <c r="E41">
+      <c r="E43">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>298.935</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F43" s="17">
         <v>152.94999999999999</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>164.64499999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
         <v>53</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C44" s="6">
         <v>5.8310000000000004</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D44" s="2">
         <v>215.83</v>
       </c>
-      <c r="E42">
+      <c r="E44">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>209.99900000000002</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F44" s="17">
         <v>124.07</v>
       </c>
-      <c r="G42">
+      <c r="G44">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>118.23899999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C45" s="6">
         <v>8.4276999999999997</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D45" s="2">
         <v>282.39999999999998</v>
       </c>
-      <c r="E43">
+      <c r="E45">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>273.97229999999996</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F45" s="17">
         <v>121.08</v>
       </c>
-      <c r="G43">
+      <c r="G45">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>112.6523</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
         <v>55</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C46" s="6">
         <v>55.694000000000003</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D46" s="2">
         <v>293.45999999999998</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>237.76599999999996</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F46" s="17">
         <v>164.18</v>
       </c>
-      <c r="G44">
+      <c r="G46">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>108.486</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
         <v>56</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C47" s="6">
         <v>8.5954999999999995</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D47" s="2">
         <v>341.02</v>
       </c>
-      <c r="E45">
+      <c r="E47">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>332.42449999999997</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F47" s="17">
         <v>104.21</v>
       </c>
-      <c r="G45">
+      <c r="G47">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>95.614499999999992</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
         <v>57</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C48" s="6">
         <v>-8.9504000000000001</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D48" s="2">
         <v>260.52</v>
       </c>
-      <c r="E46">
+      <c r="E48">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>269.47039999999998</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F48" s="17">
         <v>117.59</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>126.54040000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
         <v>58</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C49" s="6">
         <v>5.5094000000000003</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D49" s="2">
         <v>349.56</v>
       </c>
-      <c r="E47">
+      <c r="E49">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>344.05059999999997</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F49" s="17">
         <v>167.75</v>
       </c>
-      <c r="G47">
+      <c r="G49">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>162.2406</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
         <v>59</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C50" s="6">
         <v>-24.779</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D50" s="2">
         <v>210.46</v>
       </c>
-      <c r="E48">
+      <c r="E50">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>235.239</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F50" s="17">
         <v>131.13999999999999</v>
       </c>
-      <c r="G48">
+      <c r="G50">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>155.91899999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
         <v>60</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C51" s="6">
         <v>0.72641</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D51" s="2">
         <v>233.88</v>
       </c>
-      <c r="E49">
+      <c r="E51">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>233.15359000000001</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F51" s="17">
         <v>155.56</v>
       </c>
-      <c r="G49">
+      <c r="G51">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>154.83359000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
         <v>61</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C52" s="6">
         <v>14.340999999999999</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D52" s="2">
         <v>279.16000000000003</v>
       </c>
-      <c r="E50">
+      <c r="E52">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>264.81900000000002</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F52" s="17">
         <v>157.1</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>142.75899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
         <v>62</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C53" s="6">
         <v>19.591999999999999</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D53" s="2">
         <v>237.34</v>
       </c>
-      <c r="E51">
+      <c r="E53">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>217.74799999999999</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F53" s="17">
         <v>134.15</v>
       </c>
-      <c r="G51">
+      <c r="G53">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>114.55800000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
         <v>63</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C54" s="6">
         <v>-24.585999999999999</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D54" s="2">
         <v>210.64</v>
       </c>
-      <c r="E52">
+      <c r="E54">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>235.226</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F54" s="17">
         <v>100.29</v>
       </c>
-      <c r="G52">
+      <c r="G54">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>124.876</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
         <v>64</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C55" s="6">
         <v>-12.287000000000001</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D55" s="2">
         <v>250.69</v>
       </c>
-      <c r="E53">
+      <c r="E55">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>262.97699999999998</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F55" s="17">
         <v>65.826999999999998</v>
       </c>
-      <c r="G53">
+      <c r="G55">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>78.114000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
         <v>65</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C56" s="6">
         <v>-7.22</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D56" s="2">
         <v>265.94</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>273.16000000000003</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F56" s="17">
         <v>149.04</v>
       </c>
-      <c r="G54">
+      <c r="G56">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>156.26</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
         <v>66</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C57" s="6">
         <v>-26.268000000000001</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D57" s="2">
         <v>233.3</v>
       </c>
-      <c r="E55">
+      <c r="E57">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>259.56799999999998</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F57" s="17">
         <v>112.06</v>
       </c>
-      <c r="G55">
+      <c r="G57">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>138.328</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
         <v>67</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C58" s="6">
         <v>1.2215</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D58" s="2">
         <v>227.56</v>
       </c>
-      <c r="E56">
+      <c r="E58">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>226.33850000000001</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F58" s="17">
         <v>131.49</v>
       </c>
-      <c r="G56">
+      <c r="G58">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>130.26850000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
         <v>68</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C59" s="6">
         <v>-6.9671000000000003</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D59" s="2">
         <v>272.31</v>
       </c>
-      <c r="E57">
+      <c r="E59">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>279.27710000000002</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F59" s="17">
         <v>124.48</v>
       </c>
-      <c r="G57">
+      <c r="G59">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>131.44710000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
         <v>69</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C60" s="6">
         <v>29.971</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D60" s="2">
         <v>267.67</v>
       </c>
-      <c r="E58">
+      <c r="E60">
         <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
         <v>237.69900000000001</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F60" s="18">
         <v>161.5</v>
       </c>
-      <c r="G58">
+      <c r="G60">
         <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
         <v>131.529</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A60" s="42" t="s">
+    <row r="62" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A62" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B62" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C62" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D62" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E62" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F62" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G62" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A61">
+    <row r="63" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A63">
         <v>3</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C63" s="6">
         <v>6.585</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D63" s="2">
         <v>559.91</v>
       </c>
-      <c r="E61">
-        <f>D61-C61</f>
+      <c r="E63">
+        <f>D63-C63</f>
         <v>553.32499999999993</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F63" s="2">
         <v>559.91</v>
       </c>
-      <c r="G61">
-        <f>F61-C61</f>
+      <c r="G63">
+        <f>F63-C63</f>
         <v>553.32499999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
+    <row r="64" spans="1:7">
+      <c r="A64">
         <v>6</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C64" s="6">
         <v>-15.856999999999999</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D64" s="2">
         <v>177.65700000000001</v>
       </c>
-      <c r="E62">
-        <f t="shared" ref="E62:E75" si="2">D62-C62</f>
+      <c r="E64">
+        <f t="shared" ref="E64:E77" si="2">D64-C64</f>
         <v>193.51400000000001</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F64" s="2">
         <v>177.65700000000001</v>
       </c>
-      <c r="G62">
-        <f t="shared" ref="G62:G75" si="3">F62-C62</f>
+      <c r="G64">
+        <f t="shared" ref="G64:G77" si="3">F64-C64</f>
         <v>193.51400000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
+    <row r="65" spans="1:7">
+      <c r="A65">
         <v>7</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C65" s="6">
         <v>33.917999999999999</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D65" s="2">
         <v>311.38</v>
       </c>
-      <c r="E63">
+      <c r="E65">
         <f t="shared" si="2"/>
         <v>277.46199999999999</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F65" s="2">
         <v>311.38</v>
       </c>
-      <c r="G63">
+      <c r="G65">
         <f t="shared" si="3"/>
         <v>277.46199999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
+    <row r="66" spans="1:7">
+      <c r="A66">
         <v>8</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>157</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C66" s="6">
         <v>-14.363</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D66" s="2">
         <v>310.5</v>
       </c>
-      <c r="E64">
+      <c r="E66">
         <f t="shared" si="2"/>
         <v>324.863</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F66" s="2">
         <v>310.5</v>
       </c>
-      <c r="G64">
+      <c r="G66">
         <f t="shared" si="3"/>
         <v>324.863</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65">
+    <row r="67" spans="1:7">
+      <c r="A67">
         <v>9</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C67" s="6">
         <v>18.079999999999998</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D67" s="2">
         <v>429.14</v>
       </c>
-      <c r="E65">
+      <c r="E67">
         <f t="shared" si="2"/>
         <v>411.06</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F67" s="2">
         <v>429.14</v>
       </c>
-      <c r="G65">
+      <c r="G67">
         <f t="shared" si="3"/>
         <v>411.06</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66">
+    <row r="68" spans="1:7">
+      <c r="A68">
         <v>10</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C68" s="6">
         <v>-11.029</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D68" s="2">
         <v>605.14</v>
       </c>
-      <c r="E66">
+      <c r="E68">
         <f t="shared" si="2"/>
         <v>616.16899999999998</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F68" s="2">
         <v>605.14</v>
       </c>
-      <c r="G66">
+      <c r="G68">
         <f t="shared" si="3"/>
         <v>616.16899999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67">
+    <row r="69" spans="1:7">
+      <c r="A69">
         <v>11</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C69" s="6">
         <v>924544</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D69" s="2">
         <v>934324</v>
       </c>
-      <c r="E67">
+      <c r="E69">
         <f t="shared" si="2"/>
         <v>9780</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F69" s="2">
         <v>934324</v>
       </c>
-      <c r="G67">
+      <c r="G69">
         <f t="shared" si="3"/>
         <v>9780</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68">
+    <row r="70" spans="1:7">
+      <c r="A70">
         <v>12</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>161</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C70" s="6">
         <v>923177</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D70" s="2">
         <v>934554</v>
       </c>
-      <c r="E68">
+      <c r="E70">
         <f t="shared" si="2"/>
         <v>11377</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F70" s="2">
         <v>934554</v>
       </c>
-      <c r="G68">
+      <c r="G70">
         <f t="shared" si="3"/>
         <v>11377</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69">
+    <row r="71" spans="1:7">
+      <c r="A71">
         <v>13</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C71" s="6">
         <v>317.81</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D71" s="2">
         <v>597.16</v>
       </c>
-      <c r="E69">
+      <c r="E71">
         <f t="shared" si="2"/>
         <v>279.34999999999997</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F71" s="2">
         <v>597.16</v>
       </c>
-      <c r="G69">
+      <c r="G71">
         <f t="shared" si="3"/>
         <v>279.34999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70">
+    <row r="72" spans="1:7">
+      <c r="A72">
         <v>14</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C72" s="6">
         <v>328.98</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D72" s="2">
         <v>598.79999999999995</v>
       </c>
-      <c r="E70">
+      <c r="E72">
         <f t="shared" si="2"/>
         <v>269.81999999999994</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F72" s="2">
         <v>598.79999999999995</v>
       </c>
-      <c r="G70">
+      <c r="G72">
         <f t="shared" si="3"/>
         <v>269.81999999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71">
+    <row r="73" spans="1:7">
+      <c r="A73">
         <v>15</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C73" s="6">
         <v>147.85</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D73" s="2">
         <v>502</v>
       </c>
-      <c r="E71">
+      <c r="E73">
         <f t="shared" si="2"/>
         <v>354.15</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F73" s="2">
         <v>502</v>
       </c>
-      <c r="G71">
+      <c r="G73">
         <f t="shared" si="3"/>
         <v>354.15</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72">
+    <row r="74" spans="1:7">
+      <c r="A74">
         <v>16</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C74" s="6">
         <v>348.07</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D74" s="2">
         <v>821.09</v>
       </c>
-      <c r="E72">
+      <c r="E74">
         <f t="shared" si="2"/>
         <v>473.02000000000004</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F74" s="2">
         <v>821.09</v>
       </c>
-      <c r="G72">
+      <c r="G74">
         <f t="shared" si="3"/>
         <v>473.02000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73">
+    <row r="75" spans="1:7">
+      <c r="A75">
         <v>17</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C75" s="6">
         <v>17.748000000000001</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D75" s="2">
         <v>684.41</v>
       </c>
-      <c r="E73">
+      <c r="E75">
         <f t="shared" si="2"/>
         <v>666.66199999999992</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F75" s="2">
         <v>684.41</v>
       </c>
-      <c r="G73">
+      <c r="G75">
         <f t="shared" si="3"/>
         <v>666.66199999999992</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74">
+    <row r="76" spans="1:7">
+      <c r="A76">
         <v>18</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C76" s="6">
         <v>-155.75</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D76" s="2">
         <v>248.88</v>
       </c>
-      <c r="E74">
+      <c r="E76">
         <f t="shared" si="2"/>
         <v>404.63</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F76" s="2">
         <v>248.88</v>
       </c>
-      <c r="G74">
+      <c r="G76">
         <f t="shared" si="3"/>
         <v>404.63</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75">
+    <row r="77" spans="1:7">
+      <c r="A77">
         <v>20</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C77" s="6">
         <v>-34.231000000000002</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D77" s="2">
         <v>482.67</v>
       </c>
-      <c r="E75">
+      <c r="E77">
         <f t="shared" si="2"/>
         <v>516.90100000000007</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F77" s="2">
         <v>482.67</v>
       </c>
-      <c r="G75">
+      <c r="G77">
         <f t="shared" si="3"/>
         <v>516.90100000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="6"/>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6924,8 +7285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Stimuli/DepthMaps/depths.xlsx
+++ b/Stimuli/DepthMaps/depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3A4F64-A643-4F87-8332-372078DC766A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF00714-11DB-4C8C-87C0-EB0F349CC8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="histogram" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="181">
   <si>
     <t>apple</t>
   </si>
@@ -519,9 +519,6 @@
     <t>omit</t>
   </si>
   <si>
-    <t>have now re-centred so that nose bridge is at 0</t>
-  </si>
-  <si>
     <t>body-part_21</t>
   </si>
   <si>
@@ -582,21 +579,9 @@
     <t>MIN</t>
   </si>
   <si>
-    <t>object-solid_18</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>stereopair</t>
-  </si>
-  <si>
-    <t>depthmap</t>
-  </si>
-  <si>
     <t>spray</t>
   </si>
   <si>
@@ -607,6 +592,18 @@
   </si>
   <si>
     <t>object-solid_10</t>
+  </si>
+  <si>
+    <t>have now re-centred so that nose bridge is at 0 but ranges are the same</t>
+  </si>
+  <si>
+    <t>object-solid_12</t>
+  </si>
+  <si>
+    <t>object-solid_13</t>
+  </si>
+  <si>
+    <t>object-solid_15</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1059,21 +1056,371 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="73">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1613,359 +1960,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2296,7 +2290,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="I1:N16" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A15B9D7D-90D4-4490-AD0F-6639C18D4AFE}" name="Object"/>
@@ -2311,13 +2305,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="P25:T44" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F529B42-9949-412D-81C6-BCE79AF237DB}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="19">
       <calculatedColumnFormula>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3C9C5DEB-D604-4E60-9DAF-E87D2FCCDA70}" name="Name for Laurie"/>
@@ -2327,18 +2321,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A19:G36" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A19:G36" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
   <autoFilter ref="A19:G36" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="10">
       <calculatedColumnFormula>D20-C20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="50">
+    <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="8">
       <calculatedColumnFormula>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2347,18 +2341,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A38:G60" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A38:G60" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
   <autoFilter ref="A38:G60" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F9320C00-040A-4ECC-97A9-CCBA240DFE63}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="44">
+    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="2">
       <calculatedColumnFormula>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="42">
+    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="0">
       <calculatedColumnFormula>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2367,18 +2361,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A62:G77" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A62:G77" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57">
   <autoFilter ref="A62:G77" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="52">
       <calculatedColumnFormula>D63-C63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="31">
+    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="50">
       <calculatedColumnFormula>F63-C63</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2387,27 +2381,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="48"/>
     <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="39">
       <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
@@ -2417,13 +2411,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="38">
   <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="35">
       <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2432,13 +2426,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="34">
   <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
-    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="31">
       <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2447,13 +2441,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="30">
   <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
-    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="27">
       <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2760,7 +2754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D578D86-D93F-4507-92E5-98F2DF597463}">
   <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -2783,7 +2777,7 @@
     <row r="1" spans="1:53">
       <c r="A1" s="3"/>
       <c r="B1" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="22">
         <v>0</v>
@@ -2942,32 +2936,32 @@
     <row r="2" spans="1:53">
       <c r="A2" s="6"/>
       <c r="B2" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="48" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="48" t="s">
-        <v>171</v>
       </c>
       <c r="Z2" s="48"/>
       <c r="AA2" s="48"/>
@@ -2988,23 +2982,23 @@
       <c r="AP2" s="48"/>
       <c r="AQ2" s="48"/>
       <c r="AR2" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
+        <v>171</v>
+      </c>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
     </row>
     <row r="3" spans="1:53" ht="15" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="51">
         <v>1</v>
       </c>
       <c r="C3" s="3">
@@ -3162,158 +3156,158 @@
       </c>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="50"/>
-      <c r="B4" s="52">
+      <c r="A4" s="53"/>
+      <c r="B4" s="51">
         <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>5682825</v>
       </c>
-      <c r="D4" s="55">
-        <v>0</v>
-      </c>
-      <c r="E4" s="55">
-        <v>0</v>
-      </c>
-      <c r="F4" s="55">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>9</v>
       </c>
-      <c r="G4" s="55">
-        <v>0</v>
-      </c>
-      <c r="H4" s="55">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4">
         <v>12</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4">
         <v>12</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4">
         <v>21</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4">
         <v>27</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4">
         <v>21</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4">
         <v>36</v>
       </c>
-      <c r="P4" s="55">
+      <c r="P4">
         <v>33</v>
       </c>
-      <c r="Q4" s="55">
+      <c r="Q4">
         <v>138</v>
       </c>
-      <c r="R4" s="55">
+      <c r="R4">
         <v>147</v>
       </c>
-      <c r="S4" s="55">
+      <c r="S4">
         <v>123</v>
       </c>
-      <c r="T4" s="55">
+      <c r="T4">
         <v>129</v>
       </c>
-      <c r="U4" s="55">
+      <c r="U4">
         <v>105</v>
       </c>
-      <c r="V4" s="55">
+      <c r="V4">
         <v>153</v>
       </c>
-      <c r="W4" s="55">
+      <c r="W4">
         <v>138</v>
       </c>
-      <c r="X4" s="55">
+      <c r="X4">
         <v>138</v>
       </c>
-      <c r="Y4" s="56">
+      <c r="Y4" s="45">
         <v>195</v>
       </c>
-      <c r="Z4" s="56">
+      <c r="Z4" s="45">
         <v>216</v>
       </c>
-      <c r="AA4" s="56">
+      <c r="AA4" s="45">
         <v>660</v>
       </c>
-      <c r="AB4" s="56">
+      <c r="AB4" s="45">
         <v>1215</v>
       </c>
-      <c r="AC4" s="56">
+      <c r="AC4" s="45">
         <v>1524</v>
       </c>
-      <c r="AD4" s="56">
+      <c r="AD4" s="45">
         <v>2235</v>
       </c>
-      <c r="AE4" s="56">
+      <c r="AE4" s="45">
         <v>3273</v>
       </c>
-      <c r="AF4" s="56">
+      <c r="AF4" s="45">
         <v>3840</v>
       </c>
-      <c r="AG4" s="56">
+      <c r="AG4" s="45">
         <v>4797</v>
       </c>
-      <c r="AH4" s="56">
+      <c r="AH4" s="45">
         <v>6084</v>
       </c>
-      <c r="AI4" s="56">
+      <c r="AI4" s="45">
         <v>6663</v>
       </c>
-      <c r="AJ4" s="56">
+      <c r="AJ4" s="45">
         <v>8232</v>
       </c>
-      <c r="AK4" s="56">
+      <c r="AK4" s="45">
         <v>10416</v>
       </c>
-      <c r="AL4" s="56">
+      <c r="AL4" s="45">
         <v>20016</v>
       </c>
-      <c r="AM4" s="56">
+      <c r="AM4" s="45">
         <v>29313</v>
       </c>
-      <c r="AN4" s="56">
+      <c r="AN4" s="45">
         <v>61314</v>
       </c>
-      <c r="AO4" s="56">
+      <c r="AO4" s="45">
         <v>134529</v>
       </c>
-      <c r="AP4" s="56">
+      <c r="AP4" s="45">
         <v>198522</v>
       </c>
-      <c r="AQ4" s="56">
+      <c r="AQ4" s="45">
         <v>43485</v>
       </c>
-      <c r="AR4" s="56">
+      <c r="AR4" s="45">
         <v>174</v>
       </c>
-      <c r="AS4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="55">
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
@@ -3321,158 +3315,158 @@
       </c>
     </row>
     <row r="5" spans="1:53">
-      <c r="A5" s="50"/>
-      <c r="B5" s="52">
+      <c r="A5" s="53"/>
+      <c r="B5" s="51">
         <v>3</v>
       </c>
       <c r="C5" s="6">
         <v>5645412</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5">
         <v>36</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5">
         <v>33</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5">
         <v>72</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5">
         <v>150</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5">
         <v>165</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5">
         <v>225</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5">
         <v>267</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5">
         <v>294</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5">
         <v>360</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5">
         <v>426</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5">
         <v>495</v>
       </c>
-      <c r="P5" s="55">
+      <c r="P5">
         <v>630</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5">
         <v>597</v>
       </c>
-      <c r="R5" s="55">
+      <c r="R5">
         <v>441</v>
       </c>
-      <c r="S5" s="55">
+      <c r="S5">
         <v>282</v>
       </c>
-      <c r="T5" s="55">
+      <c r="T5">
         <v>273</v>
       </c>
-      <c r="U5" s="55">
+      <c r="U5">
         <v>300</v>
       </c>
-      <c r="V5" s="55">
+      <c r="V5">
         <v>264</v>
       </c>
-      <c r="W5" s="55">
+      <c r="W5">
         <v>162</v>
       </c>
-      <c r="X5" s="55">
+      <c r="X5">
         <v>144</v>
       </c>
-      <c r="Y5" s="56">
+      <c r="Y5" s="45">
         <v>123</v>
       </c>
-      <c r="Z5" s="56">
+      <c r="Z5" s="45">
         <v>84</v>
       </c>
-      <c r="AA5" s="56">
+      <c r="AA5" s="45">
         <v>30</v>
       </c>
-      <c r="AB5" s="56">
+      <c r="AB5" s="45">
         <v>81</v>
       </c>
-      <c r="AC5" s="56">
+      <c r="AC5" s="45">
         <v>504</v>
       </c>
-      <c r="AD5" s="56">
+      <c r="AD5" s="45">
         <v>735</v>
       </c>
-      <c r="AE5" s="56">
+      <c r="AE5" s="45">
         <v>3783</v>
       </c>
-      <c r="AF5" s="56">
+      <c r="AF5" s="45">
         <v>10638</v>
       </c>
-      <c r="AG5" s="56">
+      <c r="AG5" s="45">
         <v>18654</v>
       </c>
-      <c r="AH5" s="56">
+      <c r="AH5" s="45">
         <v>27453</v>
       </c>
-      <c r="AI5" s="56">
+      <c r="AI5" s="45">
         <v>30018</v>
       </c>
-      <c r="AJ5" s="56">
+      <c r="AJ5" s="45">
         <v>35307</v>
       </c>
-      <c r="AK5" s="56">
+      <c r="AK5" s="45">
         <v>40944</v>
       </c>
-      <c r="AL5" s="56">
+      <c r="AL5" s="45">
         <v>59364</v>
       </c>
-      <c r="AM5" s="56">
+      <c r="AM5" s="45">
         <v>65955</v>
       </c>
-      <c r="AN5" s="56">
+      <c r="AN5" s="45">
         <v>72165</v>
       </c>
-      <c r="AO5" s="56">
+      <c r="AO5" s="45">
         <v>84303</v>
       </c>
-      <c r="AP5" s="56">
+      <c r="AP5" s="45">
         <v>74895</v>
       </c>
-      <c r="AQ5" s="56">
+      <c r="AQ5" s="45">
         <v>44304</v>
       </c>
-      <c r="AR5" s="56">
+      <c r="AR5" s="45">
         <v>417</v>
       </c>
-      <c r="AS5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="55">
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
@@ -3480,158 +3474,158 @@
       </c>
     </row>
     <row r="6" spans="1:53">
-      <c r="A6" s="50"/>
-      <c r="B6" s="52">
+      <c r="A6" s="53"/>
+      <c r="B6" s="51">
         <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>5861466</v>
       </c>
-      <c r="D6" s="55">
-        <v>0</v>
-      </c>
-      <c r="E6" s="55">
-        <v>0</v>
-      </c>
-      <c r="F6" s="55">
-        <v>0</v>
-      </c>
-      <c r="G6" s="55">
-        <v>0</v>
-      </c>
-      <c r="H6" s="55">
-        <v>0</v>
-      </c>
-      <c r="I6" s="55">
-        <v>0</v>
-      </c>
-      <c r="J6" s="55">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>18</v>
       </c>
-      <c r="K6" s="55">
-        <v>0</v>
-      </c>
-      <c r="L6" s="55">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>24</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6">
         <v>45</v>
       </c>
-      <c r="N6" s="55">
+      <c r="N6">
         <v>66</v>
       </c>
-      <c r="O6" s="55">
+      <c r="O6">
         <v>99</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6">
         <v>129</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6">
         <v>87</v>
       </c>
-      <c r="R6" s="55">
+      <c r="R6">
         <v>138</v>
       </c>
-      <c r="S6" s="55">
+      <c r="S6">
         <v>189</v>
       </c>
-      <c r="T6" s="55">
+      <c r="T6">
         <v>219</v>
       </c>
-      <c r="U6" s="55">
+      <c r="U6">
         <v>171</v>
       </c>
-      <c r="V6" s="55">
+      <c r="V6">
         <v>36</v>
       </c>
-      <c r="W6" s="55">
-        <v>0</v>
-      </c>
-      <c r="X6" s="55">
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>3</v>
       </c>
-      <c r="Y6" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="56">
+      <c r="Y6" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="45">
         <v>33</v>
       </c>
-      <c r="AA6" s="56">
+      <c r="AA6" s="45">
         <v>273</v>
       </c>
-      <c r="AB6" s="56">
+      <c r="AB6" s="45">
         <v>789</v>
       </c>
-      <c r="AC6" s="56">
+      <c r="AC6" s="45">
         <v>1251</v>
       </c>
-      <c r="AD6" s="56">
+      <c r="AD6" s="45">
         <v>2646</v>
       </c>
-      <c r="AE6" s="56">
+      <c r="AE6" s="45">
         <v>3183</v>
       </c>
-      <c r="AF6" s="56">
+      <c r="AF6" s="45">
         <v>2985</v>
       </c>
-      <c r="AG6" s="56">
+      <c r="AG6" s="45">
         <v>3042</v>
       </c>
-      <c r="AH6" s="56">
+      <c r="AH6" s="45">
         <v>4125</v>
       </c>
-      <c r="AI6" s="56">
+      <c r="AI6" s="45">
         <v>4116</v>
       </c>
-      <c r="AJ6" s="56">
+      <c r="AJ6" s="45">
         <v>6744</v>
       </c>
-      <c r="AK6" s="56">
+      <c r="AK6" s="45">
         <v>13401</v>
       </c>
-      <c r="AL6" s="56">
+      <c r="AL6" s="45">
         <v>22899</v>
       </c>
-      <c r="AM6" s="56">
+      <c r="AM6" s="45">
         <v>27789</v>
       </c>
-      <c r="AN6" s="56">
+      <c r="AN6" s="45">
         <v>48195</v>
       </c>
-      <c r="AO6" s="56">
+      <c r="AO6" s="45">
         <v>72021</v>
       </c>
-      <c r="AP6" s="56">
+      <c r="AP6" s="45">
         <v>82953</v>
       </c>
-      <c r="AQ6" s="56">
+      <c r="AQ6" s="45">
         <v>60855</v>
       </c>
-      <c r="AR6" s="56">
+      <c r="AR6" s="45">
         <v>810</v>
       </c>
-      <c r="AS6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="55">
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
@@ -3639,158 +3633,158 @@
       </c>
     </row>
     <row r="7" spans="1:53">
-      <c r="A7" s="50"/>
-      <c r="B7" s="53">
+      <c r="A7" s="53"/>
+      <c r="B7" s="51">
         <v>5</v>
       </c>
       <c r="C7" s="6">
         <v>6013110</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7">
         <v>21</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7">
         <v>63</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7">
         <v>111</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7">
         <v>210</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7">
         <v>267</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7">
         <v>333</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7">
         <v>447</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7">
         <v>609</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7">
         <v>852</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7">
         <v>1209</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7">
         <v>1554</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7">
         <v>1845</v>
       </c>
-      <c r="Q7" s="55">
+      <c r="Q7">
         <v>2073</v>
       </c>
-      <c r="R7" s="55">
+      <c r="R7">
         <v>2796</v>
       </c>
-      <c r="S7" s="55">
+      <c r="S7">
         <v>2517</v>
       </c>
-      <c r="T7" s="55">
+      <c r="T7">
         <v>2505</v>
       </c>
-      <c r="U7" s="55">
+      <c r="U7">
         <v>2388</v>
       </c>
-      <c r="V7" s="55">
+      <c r="V7">
         <v>2043</v>
       </c>
-      <c r="W7" s="55">
+      <c r="W7">
         <v>1653</v>
       </c>
-      <c r="X7" s="55">
+      <c r="X7">
         <v>1671</v>
       </c>
-      <c r="Y7" s="56">
+      <c r="Y7" s="45">
         <v>1383</v>
       </c>
-      <c r="Z7" s="56">
+      <c r="Z7" s="45">
         <v>1182</v>
       </c>
-      <c r="AA7" s="56">
+      <c r="AA7" s="45">
         <v>951</v>
       </c>
-      <c r="AB7" s="56">
+      <c r="AB7" s="45">
         <v>1755</v>
       </c>
-      <c r="AC7" s="56">
+      <c r="AC7" s="45">
         <v>1665</v>
       </c>
-      <c r="AD7" s="56">
+      <c r="AD7" s="45">
         <v>1380</v>
       </c>
-      <c r="AE7" s="56">
+      <c r="AE7" s="45">
         <v>750</v>
       </c>
-      <c r="AF7" s="56">
+      <c r="AF7" s="45">
         <v>126</v>
       </c>
-      <c r="AG7" s="56">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="56">
+      <c r="AG7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="45">
         <v>69</v>
       </c>
-      <c r="AI7" s="56">
+      <c r="AI7" s="45">
         <v>591</v>
       </c>
-      <c r="AJ7" s="56">
+      <c r="AJ7" s="45">
         <v>2790</v>
       </c>
-      <c r="AK7" s="56">
+      <c r="AK7" s="45">
         <v>7896</v>
       </c>
-      <c r="AL7" s="56">
+      <c r="AL7" s="45">
         <v>13578</v>
       </c>
-      <c r="AM7" s="56">
+      <c r="AM7" s="45">
         <v>13488</v>
       </c>
-      <c r="AN7" s="56">
+      <c r="AN7" s="45">
         <v>16539</v>
       </c>
-      <c r="AO7" s="56">
+      <c r="AO7" s="45">
         <v>24186</v>
       </c>
-      <c r="AP7" s="56">
+      <c r="AP7" s="45">
         <v>43608</v>
       </c>
-      <c r="AQ7" s="56">
+      <c r="AQ7" s="45">
         <v>50196</v>
       </c>
-      <c r="AR7" s="56">
+      <c r="AR7" s="45">
         <v>384</v>
       </c>
-      <c r="AS7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="55">
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
@@ -3798,158 +3792,158 @@
       </c>
     </row>
     <row r="8" spans="1:53">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52">
+      <c r="A8" s="53"/>
+      <c r="B8" s="51">
         <v>6</v>
       </c>
       <c r="C8" s="6">
         <v>5908230</v>
       </c>
-      <c r="D8" s="55">
-        <v>0</v>
-      </c>
-      <c r="E8" s="55">
-        <v>0</v>
-      </c>
-      <c r="F8" s="55">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8">
         <v>15</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8">
         <v>15</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8">
         <v>21</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8">
         <v>24</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8">
         <v>33</v>
       </c>
-      <c r="N8" s="55">
+      <c r="N8">
         <v>57</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8">
         <v>93</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8">
         <v>165</v>
       </c>
-      <c r="Q8" s="55">
+      <c r="Q8">
         <v>276</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8">
         <v>381</v>
       </c>
-      <c r="S8" s="55">
+      <c r="S8">
         <v>534</v>
       </c>
-      <c r="T8" s="55">
+      <c r="T8">
         <v>720</v>
       </c>
-      <c r="U8" s="55">
+      <c r="U8">
         <v>1161</v>
       </c>
-      <c r="V8" s="55">
+      <c r="V8">
         <v>1818</v>
       </c>
-      <c r="W8" s="55">
+      <c r="W8">
         <v>2778</v>
       </c>
-      <c r="X8" s="55">
+      <c r="X8">
         <v>3690</v>
       </c>
-      <c r="Y8" s="56">
+      <c r="Y8" s="45">
         <v>4143</v>
       </c>
-      <c r="Z8" s="56">
+      <c r="Z8" s="45">
         <v>4605</v>
       </c>
-      <c r="AA8" s="56">
+      <c r="AA8" s="45">
         <v>5592</v>
       </c>
-      <c r="AB8" s="56">
+      <c r="AB8" s="45">
         <v>8994</v>
       </c>
-      <c r="AC8" s="56">
+      <c r="AC8" s="45">
         <v>9378</v>
       </c>
-      <c r="AD8" s="56">
+      <c r="AD8" s="45">
         <v>14685</v>
       </c>
-      <c r="AE8" s="56">
+      <c r="AE8" s="45">
         <v>13740</v>
       </c>
-      <c r="AF8" s="56">
+      <c r="AF8" s="45">
         <v>15867</v>
       </c>
-      <c r="AG8" s="56">
+      <c r="AG8" s="45">
         <v>19236</v>
       </c>
-      <c r="AH8" s="56">
+      <c r="AH8" s="45">
         <v>21837</v>
       </c>
-      <c r="AI8" s="56">
+      <c r="AI8" s="45">
         <v>22362</v>
       </c>
-      <c r="AJ8" s="56">
+      <c r="AJ8" s="45">
         <v>25977</v>
       </c>
-      <c r="AK8" s="56">
+      <c r="AK8" s="45">
         <v>32052</v>
       </c>
-      <c r="AL8" s="56">
+      <c r="AL8" s="45">
         <v>14775</v>
       </c>
-      <c r="AM8" s="56">
+      <c r="AM8" s="45">
         <v>13359</v>
       </c>
-      <c r="AN8" s="56">
+      <c r="AN8" s="45">
         <v>16686</v>
       </c>
-      <c r="AO8" s="56">
+      <c r="AO8" s="45">
         <v>15447</v>
       </c>
-      <c r="AP8" s="56">
+      <c r="AP8" s="45">
         <v>17835</v>
       </c>
-      <c r="AQ8" s="56">
+      <c r="AQ8" s="45">
         <v>24168</v>
       </c>
-      <c r="AR8" s="56">
+      <c r="AR8" s="45">
         <v>42</v>
       </c>
-      <c r="AS8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="55">
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
@@ -3957,158 +3951,158 @@
       </c>
     </row>
     <row r="9" spans="1:53">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52">
+      <c r="A9" s="53"/>
+      <c r="B9" s="51">
         <v>7</v>
       </c>
       <c r="C9" s="6">
         <v>5575407</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9">
         <v>24</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9">
         <v>18</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9">
         <v>24</v>
       </c>
-      <c r="L9" s="55">
+      <c r="L9">
         <v>36</v>
       </c>
-      <c r="M9" s="55">
+      <c r="M9">
         <v>36</v>
       </c>
-      <c r="N9" s="55">
+      <c r="N9">
         <v>15</v>
       </c>
-      <c r="O9" s="55">
+      <c r="O9">
         <v>33</v>
       </c>
-      <c r="P9" s="55">
+      <c r="P9">
         <v>18</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9">
         <v>66</v>
       </c>
-      <c r="R9" s="55">
+      <c r="R9">
         <v>153</v>
       </c>
-      <c r="S9" s="55">
+      <c r="S9">
         <v>141</v>
       </c>
-      <c r="T9" s="55">
+      <c r="T9">
         <v>174</v>
       </c>
-      <c r="U9" s="55">
+      <c r="U9">
         <v>234</v>
       </c>
-      <c r="V9" s="55">
+      <c r="V9">
         <v>321</v>
       </c>
-      <c r="W9" s="55">
+      <c r="W9">
         <v>423</v>
       </c>
-      <c r="X9" s="55">
+      <c r="X9">
         <v>600</v>
       </c>
-      <c r="Y9" s="56">
+      <c r="Y9" s="45">
         <v>783</v>
       </c>
-      <c r="Z9" s="56">
+      <c r="Z9" s="45">
         <v>945</v>
       </c>
-      <c r="AA9" s="56">
+      <c r="AA9" s="45">
         <v>1206</v>
       </c>
-      <c r="AB9" s="56">
+      <c r="AB9" s="45">
         <v>1938</v>
       </c>
-      <c r="AC9" s="56">
+      <c r="AC9" s="45">
         <v>2283</v>
       </c>
-      <c r="AD9" s="56">
+      <c r="AD9" s="45">
         <v>3138</v>
       </c>
-      <c r="AE9" s="56">
+      <c r="AE9" s="45">
         <v>4482</v>
       </c>
-      <c r="AF9" s="56">
+      <c r="AF9" s="45">
         <v>6726</v>
       </c>
-      <c r="AG9" s="56">
+      <c r="AG9" s="45">
         <v>10029</v>
       </c>
-      <c r="AH9" s="56">
+      <c r="AH9" s="45">
         <v>11541</v>
       </c>
-      <c r="AI9" s="56">
+      <c r="AI9" s="45">
         <v>13848</v>
       </c>
-      <c r="AJ9" s="56">
+      <c r="AJ9" s="45">
         <v>18030</v>
       </c>
-      <c r="AK9" s="56">
+      <c r="AK9" s="45">
         <v>23208</v>
       </c>
-      <c r="AL9" s="56">
+      <c r="AL9" s="45">
         <v>36228</v>
       </c>
-      <c r="AM9" s="56">
+      <c r="AM9" s="45">
         <v>41673</v>
       </c>
-      <c r="AN9" s="56">
+      <c r="AN9" s="45">
         <v>57783</v>
       </c>
-      <c r="AO9" s="56">
+      <c r="AO9" s="45">
         <v>85827</v>
       </c>
-      <c r="AP9" s="56">
+      <c r="AP9" s="45">
         <v>132150</v>
       </c>
-      <c r="AQ9" s="56">
+      <c r="AQ9" s="45">
         <v>189495</v>
       </c>
-      <c r="AR9" s="56">
+      <c r="AR9" s="45">
         <v>1740</v>
       </c>
-      <c r="AS9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="55">
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
         <v>0</v>
       </c>
       <c r="BA9" s="2">
@@ -4116,158 +4110,158 @@
       </c>
     </row>
     <row r="10" spans="1:53">
-      <c r="A10" s="50"/>
-      <c r="B10" s="52">
+      <c r="A10" s="53"/>
+      <c r="B10" s="51">
         <v>8</v>
       </c>
       <c r="C10" s="6">
         <v>5746935</v>
       </c>
-      <c r="D10" s="55">
-        <v>0</v>
-      </c>
-      <c r="E10" s="55">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="55">
-        <v>0</v>
-      </c>
-      <c r="G10" s="55">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10">
         <v>12</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10">
         <v>39</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10">
         <v>93</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10">
         <v>90</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10">
         <v>147</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10">
         <v>210</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10">
         <v>285</v>
       </c>
-      <c r="P10" s="55">
+      <c r="P10">
         <v>363</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10">
         <v>453</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10">
         <v>621</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10">
         <v>624</v>
       </c>
-      <c r="T10" s="55">
+      <c r="T10">
         <v>681</v>
       </c>
-      <c r="U10" s="55">
+      <c r="U10">
         <v>741</v>
       </c>
-      <c r="V10" s="55">
+      <c r="V10">
         <v>819</v>
       </c>
-      <c r="W10" s="55">
+      <c r="W10">
         <v>780</v>
       </c>
-      <c r="X10" s="55">
+      <c r="X10">
         <v>705</v>
       </c>
-      <c r="Y10" s="56">
+      <c r="Y10" s="45">
         <v>726</v>
       </c>
-      <c r="Z10" s="56">
+      <c r="Z10" s="45">
         <v>663</v>
       </c>
-      <c r="AA10" s="56">
+      <c r="AA10" s="45">
         <v>522</v>
       </c>
-      <c r="AB10" s="56">
+      <c r="AB10" s="45">
         <v>690</v>
       </c>
-      <c r="AC10" s="56">
+      <c r="AC10" s="45">
         <v>654</v>
       </c>
-      <c r="AD10" s="56">
+      <c r="AD10" s="45">
         <v>519</v>
       </c>
-      <c r="AE10" s="56">
+      <c r="AE10" s="45">
         <v>552</v>
       </c>
-      <c r="AF10" s="56">
+      <c r="AF10" s="45">
         <v>681</v>
       </c>
-      <c r="AG10" s="56">
+      <c r="AG10" s="45">
         <v>687</v>
       </c>
-      <c r="AH10" s="56">
+      <c r="AH10" s="45">
         <v>1197</v>
       </c>
-      <c r="AI10" s="56">
+      <c r="AI10" s="45">
         <v>1818</v>
       </c>
-      <c r="AJ10" s="56">
+      <c r="AJ10" s="45">
         <v>2784</v>
       </c>
-      <c r="AK10" s="56">
+      <c r="AK10" s="45">
         <v>4257</v>
       </c>
-      <c r="AL10" s="56">
+      <c r="AL10" s="45">
         <v>9225</v>
       </c>
-      <c r="AM10" s="56">
+      <c r="AM10" s="45">
         <v>16671</v>
       </c>
-      <c r="AN10" s="56">
+      <c r="AN10" s="45">
         <v>36699</v>
       </c>
-      <c r="AO10" s="56">
+      <c r="AO10" s="45">
         <v>87156</v>
       </c>
-      <c r="AP10" s="56">
+      <c r="AP10" s="45">
         <v>153768</v>
       </c>
-      <c r="AQ10" s="56">
+      <c r="AQ10" s="45">
         <v>146343</v>
       </c>
-      <c r="AR10" s="56">
+      <c r="AR10" s="45">
         <v>1581</v>
       </c>
-      <c r="AS10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="55">
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
         <v>0</v>
       </c>
       <c r="BA10" s="2">
@@ -4275,158 +4269,158 @@
       </c>
     </row>
     <row r="11" spans="1:53">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51">
         <v>9</v>
       </c>
       <c r="C11" s="6">
         <v>6014433</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11">
         <v>24</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11">
         <v>33</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11">
         <v>54</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11">
         <v>81</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11">
         <v>90</v>
       </c>
-      <c r="N11" s="55">
+      <c r="N11">
         <v>114</v>
       </c>
-      <c r="O11" s="55">
+      <c r="O11">
         <v>153</v>
       </c>
-      <c r="P11" s="55">
+      <c r="P11">
         <v>144</v>
       </c>
-      <c r="Q11" s="55">
+      <c r="Q11">
         <v>216</v>
       </c>
-      <c r="R11" s="55">
+      <c r="R11">
         <v>243</v>
       </c>
-      <c r="S11" s="55">
+      <c r="S11">
         <v>276</v>
       </c>
-      <c r="T11" s="55">
+      <c r="T11">
         <v>288</v>
       </c>
-      <c r="U11" s="55">
+      <c r="U11">
         <v>297</v>
       </c>
-      <c r="V11" s="55">
+      <c r="V11">
         <v>357</v>
       </c>
-      <c r="W11" s="55">
+      <c r="W11">
         <v>360</v>
       </c>
-      <c r="X11" s="55">
+      <c r="X11">
         <v>435</v>
       </c>
-      <c r="Y11" s="56">
+      <c r="Y11" s="45">
         <v>459</v>
       </c>
-      <c r="Z11" s="56">
+      <c r="Z11" s="45">
         <v>531</v>
       </c>
-      <c r="AA11" s="56">
+      <c r="AA11" s="45">
         <v>621</v>
       </c>
-      <c r="AB11" s="56">
+      <c r="AB11" s="45">
         <v>810</v>
       </c>
-      <c r="AC11" s="56">
+      <c r="AC11" s="45">
         <v>825</v>
       </c>
-      <c r="AD11" s="56">
+      <c r="AD11" s="45">
         <v>996</v>
       </c>
-      <c r="AE11" s="56">
+      <c r="AE11" s="45">
         <v>1167</v>
       </c>
-      <c r="AF11" s="56">
+      <c r="AF11" s="45">
         <v>1377</v>
       </c>
-      <c r="AG11" s="56">
+      <c r="AG11" s="45">
         <v>1572</v>
       </c>
-      <c r="AH11" s="56">
+      <c r="AH11" s="45">
         <v>1632</v>
       </c>
-      <c r="AI11" s="56">
+      <c r="AI11" s="45">
         <v>2193</v>
       </c>
-      <c r="AJ11" s="56">
+      <c r="AJ11" s="45">
         <v>3996</v>
       </c>
-      <c r="AK11" s="56">
+      <c r="AK11" s="45">
         <v>6504</v>
       </c>
-      <c r="AL11" s="56">
+      <c r="AL11" s="45">
         <v>15504</v>
       </c>
-      <c r="AM11" s="56">
+      <c r="AM11" s="45">
         <v>18927</v>
       </c>
-      <c r="AN11" s="56">
+      <c r="AN11" s="45">
         <v>14136</v>
       </c>
-      <c r="AO11" s="56">
+      <c r="AO11" s="45">
         <v>21051</v>
       </c>
-      <c r="AP11" s="56">
+      <c r="AP11" s="45">
         <v>54135</v>
       </c>
-      <c r="AQ11" s="56">
+      <c r="AQ11" s="45">
         <v>56430</v>
       </c>
-      <c r="AR11" s="56">
+      <c r="AR11" s="45">
         <v>297</v>
       </c>
-      <c r="AS11" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="55">
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
         <v>0</v>
       </c>
       <c r="BA11" s="2">
@@ -4434,158 +4428,158 @@
       </c>
     </row>
     <row r="12" spans="1:53">
-      <c r="A12" s="50"/>
-      <c r="B12" s="52">
+      <c r="A12" s="53"/>
+      <c r="B12" s="51">
         <v>10</v>
       </c>
       <c r="C12" s="6">
         <v>6009312</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="E12" s="55">
-        <v>0</v>
-      </c>
-      <c r="F12" s="55">
-        <v>0</v>
-      </c>
-      <c r="G12" s="55">
-        <v>0</v>
-      </c>
-      <c r="H12" s="55">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>12</v>
       </c>
-      <c r="I12" s="55">
-        <v>0</v>
-      </c>
-      <c r="J12" s="55">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>6</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12">
         <v>12</v>
       </c>
-      <c r="L12" s="55">
-        <v>0</v>
-      </c>
-      <c r="M12" s="55">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>180</v>
       </c>
-      <c r="N12" s="55">
+      <c r="N12">
         <v>249</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12">
         <v>231</v>
       </c>
-      <c r="P12" s="55">
+      <c r="P12">
         <v>195</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12">
         <v>417</v>
       </c>
-      <c r="R12" s="55">
+      <c r="R12">
         <v>354</v>
       </c>
-      <c r="S12" s="55">
+      <c r="S12">
         <v>276</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12">
         <v>333</v>
       </c>
-      <c r="U12" s="55">
+      <c r="U12">
         <v>387</v>
       </c>
-      <c r="V12" s="55">
+      <c r="V12">
         <v>459</v>
       </c>
-      <c r="W12" s="55">
+      <c r="W12">
         <v>636</v>
       </c>
-      <c r="X12" s="55">
+      <c r="X12">
         <v>1476</v>
       </c>
-      <c r="Y12" s="56">
+      <c r="Y12" s="45">
         <v>1461</v>
       </c>
-      <c r="Z12" s="56">
+      <c r="Z12" s="45">
         <v>1596</v>
       </c>
-      <c r="AA12" s="56">
+      <c r="AA12" s="45">
         <v>1734</v>
       </c>
-      <c r="AB12" s="56">
+      <c r="AB12" s="45">
         <v>2325</v>
       </c>
-      <c r="AC12" s="56">
+      <c r="AC12" s="45">
         <v>2175</v>
       </c>
-      <c r="AD12" s="56">
+      <c r="AD12" s="45">
         <v>2553</v>
       </c>
-      <c r="AE12" s="56">
+      <c r="AE12" s="45">
         <v>2685</v>
       </c>
-      <c r="AF12" s="56">
+      <c r="AF12" s="45">
         <v>3108</v>
       </c>
-      <c r="AG12" s="56">
+      <c r="AG12" s="45">
         <v>3369</v>
       </c>
-      <c r="AH12" s="56">
+      <c r="AH12" s="45">
         <v>3864</v>
       </c>
-      <c r="AI12" s="56">
+      <c r="AI12" s="45">
         <v>4479</v>
       </c>
-      <c r="AJ12" s="56">
+      <c r="AJ12" s="45">
         <v>5094</v>
       </c>
-      <c r="AK12" s="56">
+      <c r="AK12" s="45">
         <v>5757</v>
       </c>
-      <c r="AL12" s="56">
+      <c r="AL12" s="45">
         <v>8322</v>
       </c>
-      <c r="AM12" s="56">
+      <c r="AM12" s="45">
         <v>8334</v>
       </c>
-      <c r="AN12" s="56">
+      <c r="AN12" s="45">
         <v>10002</v>
       </c>
-      <c r="AO12" s="56">
+      <c r="AO12" s="45">
         <v>12213</v>
       </c>
-      <c r="AP12" s="56">
+      <c r="AP12" s="45">
         <v>27540</v>
       </c>
-      <c r="AQ12" s="56">
+      <c r="AQ12" s="45">
         <v>99117</v>
       </c>
-      <c r="AR12" s="56">
+      <c r="AR12" s="45">
         <v>528</v>
       </c>
-      <c r="AS12" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="55">
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
         <v>0</v>
       </c>
       <c r="BA12" s="2">
@@ -4593,158 +4587,158 @@
       </c>
     </row>
     <row r="13" spans="1:53">
-      <c r="A13" s="50"/>
-      <c r="B13" s="52">
+      <c r="A13" s="53"/>
+      <c r="B13" s="51">
         <v>14</v>
       </c>
       <c r="C13" s="6">
         <v>5642202</v>
       </c>
-      <c r="D13" s="55">
-        <v>0</v>
-      </c>
-      <c r="E13" s="55">
-        <v>0</v>
-      </c>
-      <c r="F13" s="55">
-        <v>0</v>
-      </c>
-      <c r="G13" s="55">
-        <v>0</v>
-      </c>
-      <c r="H13" s="55">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="55">
-        <v>0</v>
-      </c>
-      <c r="K13" s="55">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13">
         <v>6</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13">
         <v>6</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13">
         <v>21</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13">
         <v>3</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13">
         <v>15</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13">
         <v>30</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13">
         <v>24</v>
       </c>
-      <c r="T13" s="55">
+      <c r="T13">
         <v>30</v>
       </c>
-      <c r="U13" s="55">
+      <c r="U13">
         <v>45</v>
       </c>
-      <c r="V13" s="55">
+      <c r="V13">
         <v>60</v>
       </c>
-      <c r="W13" s="55">
+      <c r="W13">
         <v>96</v>
       </c>
-      <c r="X13" s="55">
+      <c r="X13">
         <v>126</v>
       </c>
-      <c r="Y13" s="56">
+      <c r="Y13" s="45">
         <v>153</v>
       </c>
-      <c r="Z13" s="56">
+      <c r="Z13" s="45">
         <v>219</v>
       </c>
-      <c r="AA13" s="56">
+      <c r="AA13" s="45">
         <v>258</v>
       </c>
-      <c r="AB13" s="56">
+      <c r="AB13" s="45">
         <v>480</v>
       </c>
-      <c r="AC13" s="56">
+      <c r="AC13" s="45">
         <v>663</v>
       </c>
-      <c r="AD13" s="56">
+      <c r="AD13" s="45">
         <v>903</v>
       </c>
-      <c r="AE13" s="56">
+      <c r="AE13" s="45">
         <v>1116</v>
       </c>
-      <c r="AF13" s="56">
+      <c r="AF13" s="45">
         <v>1434</v>
       </c>
-      <c r="AG13" s="56">
+      <c r="AG13" s="45">
         <v>1749</v>
       </c>
-      <c r="AH13" s="56">
+      <c r="AH13" s="45">
         <v>2913</v>
       </c>
-      <c r="AI13" s="56">
+      <c r="AI13" s="45">
         <v>4491</v>
       </c>
-      <c r="AJ13" s="56">
+      <c r="AJ13" s="45">
         <v>7227</v>
       </c>
-      <c r="AK13" s="56">
+      <c r="AK13" s="45">
         <v>12756</v>
       </c>
-      <c r="AL13" s="56">
+      <c r="AL13" s="45">
         <v>28077</v>
       </c>
-      <c r="AM13" s="56">
+      <c r="AM13" s="45">
         <v>65586</v>
       </c>
-      <c r="AN13" s="56">
+      <c r="AN13" s="45">
         <v>107610</v>
       </c>
-      <c r="AO13" s="56">
+      <c r="AO13" s="45">
         <v>169998</v>
       </c>
-      <c r="AP13" s="56">
+      <c r="AP13" s="45">
         <v>156396</v>
       </c>
-      <c r="AQ13" s="56">
+      <c r="AQ13" s="45">
         <v>16059</v>
       </c>
-      <c r="AR13" s="56">
+      <c r="AR13" s="45">
         <v>36</v>
       </c>
-      <c r="AS13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="55">
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
         <v>0</v>
       </c>
       <c r="BA13" s="2">
@@ -4752,158 +4746,158 @@
       </c>
     </row>
     <row r="14" spans="1:53">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51">
         <v>16</v>
       </c>
       <c r="C14" s="6">
         <v>6007881</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14">
         <v>18</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14">
         <v>39</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14">
         <v>66</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14">
         <v>72</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14">
         <v>147</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14">
         <v>144</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14">
         <v>201</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14">
         <v>255</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14">
         <v>324</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14">
         <v>384</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14">
         <v>465</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14">
         <v>723</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14">
         <v>675</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14">
         <v>567</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14">
         <v>627</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14">
         <v>519</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14">
         <v>405</v>
       </c>
-      <c r="U14" s="55">
+      <c r="U14">
         <v>345</v>
       </c>
-      <c r="V14" s="55">
+      <c r="V14">
         <v>132</v>
       </c>
-      <c r="W14" s="55">
+      <c r="W14">
         <v>84</v>
       </c>
-      <c r="X14" s="55">
+      <c r="X14">
         <v>72</v>
       </c>
-      <c r="Y14" s="56">
+      <c r="Y14" s="45">
         <v>51</v>
       </c>
-      <c r="Z14" s="56">
+      <c r="Z14" s="45">
         <v>114</v>
       </c>
-      <c r="AA14" s="56">
+      <c r="AA14" s="45">
         <v>336</v>
       </c>
-      <c r="AB14" s="56">
+      <c r="AB14" s="45">
         <v>1041</v>
       </c>
-      <c r="AC14" s="56">
+      <c r="AC14" s="45">
         <v>1524</v>
       </c>
-      <c r="AD14" s="56">
+      <c r="AD14" s="45">
         <v>2340</v>
       </c>
-      <c r="AE14" s="56">
+      <c r="AE14" s="45">
         <v>4089</v>
       </c>
-      <c r="AF14" s="56">
+      <c r="AF14" s="45">
         <v>8661</v>
       </c>
-      <c r="AG14" s="56">
+      <c r="AG14" s="45">
         <v>6804</v>
       </c>
-      <c r="AH14" s="56">
+      <c r="AH14" s="45">
         <v>5556</v>
       </c>
-      <c r="AI14" s="56">
+      <c r="AI14" s="45">
         <v>8727</v>
       </c>
-      <c r="AJ14" s="56">
+      <c r="AJ14" s="45">
         <v>9624</v>
       </c>
-      <c r="AK14" s="56">
+      <c r="AK14" s="45">
         <v>13248</v>
       </c>
-      <c r="AL14" s="56">
+      <c r="AL14" s="45">
         <v>17871</v>
       </c>
-      <c r="AM14" s="56">
+      <c r="AM14" s="45">
         <v>41505</v>
       </c>
-      <c r="AN14" s="56">
+      <c r="AN14" s="45">
         <v>30234</v>
       </c>
-      <c r="AO14" s="56">
+      <c r="AO14" s="45">
         <v>29877</v>
       </c>
-      <c r="AP14" s="56">
+      <c r="AP14" s="45">
         <v>15603</v>
       </c>
-      <c r="AQ14" s="56">
+      <c r="AQ14" s="45">
         <v>9423</v>
       </c>
-      <c r="AR14" s="56">
+      <c r="AR14" s="45">
         <v>27</v>
       </c>
-      <c r="AS14" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="55">
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
         <v>0</v>
       </c>
       <c r="BA14" s="2">
@@ -4911,158 +4905,158 @@
       </c>
     </row>
     <row r="15" spans="1:53">
-      <c r="A15" s="50"/>
-      <c r="B15" s="52">
+      <c r="A15" s="53"/>
+      <c r="B15" s="51">
         <v>17</v>
       </c>
       <c r="C15" s="6">
         <v>5708397</v>
       </c>
-      <c r="D15" s="55">
-        <v>0</v>
-      </c>
-      <c r="E15" s="55">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>45</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15">
         <v>21</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15">
         <v>90</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15">
         <v>66</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15">
         <v>132</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15">
         <v>162</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15">
         <v>186</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15">
         <v>267</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15">
         <v>327</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15">
         <v>408</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15">
         <v>477</v>
       </c>
-      <c r="P15" s="55">
+      <c r="P15">
         <v>594</v>
       </c>
-      <c r="Q15" s="55">
+      <c r="Q15">
         <v>675</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R15">
         <v>1008</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15">
         <v>1476</v>
       </c>
-      <c r="T15" s="55">
+      <c r="T15">
         <v>2385</v>
       </c>
-      <c r="U15" s="55">
+      <c r="U15">
         <v>1560</v>
       </c>
-      <c r="V15" s="55">
+      <c r="V15">
         <v>1194</v>
       </c>
-      <c r="W15" s="55">
+      <c r="W15">
         <v>1065</v>
       </c>
-      <c r="X15" s="55">
+      <c r="X15">
         <v>957</v>
       </c>
-      <c r="Y15" s="56">
+      <c r="Y15" s="45">
         <v>705</v>
       </c>
-      <c r="Z15" s="56">
+      <c r="Z15" s="45">
         <v>543</v>
       </c>
-      <c r="AA15" s="56">
+      <c r="AA15" s="45">
         <v>645</v>
       </c>
-      <c r="AB15" s="56">
+      <c r="AB15" s="45">
         <v>969</v>
       </c>
-      <c r="AC15" s="56">
+      <c r="AC15" s="45">
         <v>1047</v>
       </c>
-      <c r="AD15" s="56">
+      <c r="AD15" s="45">
         <v>840</v>
       </c>
-      <c r="AE15" s="56">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="56">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="56">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="56">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="56">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="56">
+      <c r="AE15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="45">
         <v>12</v>
       </c>
-      <c r="AK15" s="56">
+      <c r="AK15" s="45">
         <v>102</v>
       </c>
-      <c r="AL15" s="56">
+      <c r="AL15" s="45">
         <v>8031</v>
       </c>
-      <c r="AM15" s="56">
+      <c r="AM15" s="45">
         <v>12927</v>
       </c>
-      <c r="AN15" s="56">
+      <c r="AN15" s="45">
         <v>36036</v>
       </c>
-      <c r="AO15" s="56">
+      <c r="AO15" s="45">
         <v>80724</v>
       </c>
-      <c r="AP15" s="56">
+      <c r="AP15" s="45">
         <v>165849</v>
       </c>
-      <c r="AQ15" s="56">
+      <c r="AQ15" s="45">
         <v>190725</v>
       </c>
-      <c r="AR15" s="56">
+      <c r="AR15" s="45">
         <v>153</v>
       </c>
-      <c r="AS15" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="55">
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
         <v>0</v>
       </c>
       <c r="BA15" s="2">
@@ -5070,158 +5064,158 @@
       </c>
     </row>
     <row r="16" spans="1:53" s="4" customFormat="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51">
         <v>18</v>
       </c>
       <c r="C16" s="6">
         <v>5959452</v>
       </c>
-      <c r="D16" s="55">
-        <v>0</v>
-      </c>
-      <c r="E16" s="55">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16">
         <v>27</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16">
         <v>33</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16">
         <v>48</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16">
         <v>66</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16">
         <v>135</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16">
         <v>150</v>
       </c>
-      <c r="N16" s="55">
+      <c r="N16">
         <v>216</v>
       </c>
-      <c r="O16" s="55">
+      <c r="O16">
         <v>339</v>
       </c>
-      <c r="P16" s="55">
+      <c r="P16">
         <v>519</v>
       </c>
-      <c r="Q16" s="55">
+      <c r="Q16">
         <v>822</v>
       </c>
-      <c r="R16" s="55">
+      <c r="R16">
         <v>1359</v>
       </c>
-      <c r="S16" s="55">
+      <c r="S16">
         <v>1680</v>
       </c>
-      <c r="T16" s="55">
+      <c r="T16">
         <v>2490</v>
       </c>
-      <c r="U16" s="55">
+      <c r="U16">
         <v>1560</v>
       </c>
-      <c r="V16" s="55">
+      <c r="V16">
         <v>1287</v>
       </c>
-      <c r="W16" s="55">
+      <c r="W16">
         <v>1578</v>
       </c>
-      <c r="X16" s="55">
+      <c r="X16">
         <v>1794</v>
       </c>
-      <c r="Y16" s="56">
+      <c r="Y16" s="45">
         <v>1920</v>
       </c>
-      <c r="Z16" s="56">
+      <c r="Z16" s="45">
         <v>2055</v>
       </c>
-      <c r="AA16" s="56">
+      <c r="AA16" s="45">
         <v>2202</v>
       </c>
-      <c r="AB16" s="56">
+      <c r="AB16" s="45">
         <v>2805</v>
       </c>
-      <c r="AC16" s="56">
+      <c r="AC16" s="45">
         <v>2619</v>
       </c>
-      <c r="AD16" s="56">
+      <c r="AD16" s="45">
         <v>2883</v>
       </c>
-      <c r="AE16" s="56">
+      <c r="AE16" s="45">
         <v>3654</v>
       </c>
-      <c r="AF16" s="56">
+      <c r="AF16" s="45">
         <v>6594</v>
       </c>
-      <c r="AG16" s="56">
+      <c r="AG16" s="45">
         <v>9399</v>
       </c>
-      <c r="AH16" s="56">
+      <c r="AH16" s="45">
         <v>13488</v>
       </c>
-      <c r="AI16" s="56">
+      <c r="AI16" s="45">
         <v>23322</v>
       </c>
-      <c r="AJ16" s="56">
+      <c r="AJ16" s="45">
         <v>32865</v>
       </c>
-      <c r="AK16" s="56">
+      <c r="AK16" s="45">
         <v>20874</v>
       </c>
-      <c r="AL16" s="56">
+      <c r="AL16" s="45">
         <v>20634</v>
       </c>
-      <c r="AM16" s="56">
+      <c r="AM16" s="45">
         <v>19488</v>
       </c>
-      <c r="AN16" s="56">
+      <c r="AN16" s="45">
         <v>22491</v>
       </c>
-      <c r="AO16" s="56">
+      <c r="AO16" s="45">
         <v>24177</v>
       </c>
-      <c r="AP16" s="56">
+      <c r="AP16" s="45">
         <v>21012</v>
       </c>
-      <c r="AQ16" s="56">
+      <c r="AQ16" s="45">
         <v>14490</v>
       </c>
-      <c r="AR16" s="56">
+      <c r="AR16" s="45">
         <v>258</v>
       </c>
-      <c r="AS16" s="55">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="55">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="55">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="55">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="55">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="55">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="55">
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
         <v>0</v>
       </c>
       <c r="BA16" s="2">
@@ -5230,7 +5224,7 @@
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="22"/>
-      <c r="B17" s="52">
+      <c r="B17" s="51">
         <v>19</v>
       </c>
       <c r="C17" s="7">
@@ -5397,10 +5391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
-  <dimension ref="A2:L81"/>
+  <dimension ref="A2:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5436,11 +5430,11 @@
         <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I2">
         <f>AVERAGE(Table9[visible range])</f>
-        <v>132.48220666666666</v>
+        <v>137.37405999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1">
@@ -5648,7 +5642,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="32">
         <v>0</v>
@@ -5673,7 +5667,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="C12" s="32">
         <v>0</v>
@@ -5698,7 +5692,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="C13" s="32">
         <v>0</v>
@@ -5723,7 +5717,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="C14" s="32">
         <v>0</v>
@@ -5748,32 +5742,32 @@
         <v>18</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="C15" s="32">
         <v>0</v>
       </c>
       <c r="D15" s="33">
-        <v>132.87200000000001</v>
+        <v>146.97399999999999</v>
       </c>
       <c r="E15" s="31">
         <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
-        <v>132.87200000000001</v>
+        <v>146.97399999999999</v>
       </c>
       <c r="F15" s="31">
-        <v>59.991999999999997</v>
+        <v>90.606899999999996</v>
       </c>
       <c r="G15" s="30">
         <f>F15-C15</f>
-        <v>59.991999999999997</v>
+        <v>90.606899999999996</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C16" s="32">
         <v>0</v>
@@ -5793,32 +5787,32 @@
         <v>136.40899999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:9">
       <c r="A17" s="34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C17" s="35">
         <v>0</v>
       </c>
       <c r="D17" s="36">
-        <v>96.621099999999998</v>
+        <v>145.149</v>
       </c>
       <c r="E17" s="33">
         <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
-        <v>96.621099999999998</v>
+        <v>145.149</v>
       </c>
       <c r="F17" s="34">
-        <v>85.091099999999997</v>
+        <v>127.854</v>
       </c>
       <c r="G17" s="30">
         <f>F17-C17</f>
-        <v>85.091099999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>127.854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -5827,7 +5821,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1">
       <c r="A19" s="37" t="s">
         <v>91</v>
       </c>
@@ -5848,19 +5842,16 @@
       </c>
       <c r="G19" s="37" t="s">
         <v>146</v>
+      </c>
+      <c r="H19" t="s">
+        <v>172</v>
       </c>
       <c r="I19">
         <f>AVERAGE(Table2[visible range])</f>
         <v>116.9800588235294</v>
       </c>
-      <c r="K19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickTop="1">
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickTop="1">
       <c r="A20" s="30" t="s">
         <v>33</v>
       </c>
@@ -5885,7 +5876,7 @@
         <v>81.344200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:9">
       <c r="A21" s="30" t="s">
         <v>32</v>
       </c>
@@ -5910,7 +5901,7 @@
         <v>77.637799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:9">
       <c r="A22" s="30" t="s">
         <v>31</v>
       </c>
@@ -5935,7 +5926,7 @@
         <v>125.315</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:9">
       <c r="A23" s="30" t="s">
         <v>30</v>
       </c>
@@ -5960,7 +5951,7 @@
         <v>101.886</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:9">
       <c r="A24" s="30" t="s">
         <v>29</v>
       </c>
@@ -5985,7 +5976,7 @@
         <v>88.513000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:9">
       <c r="A25" s="30" t="s">
         <v>34</v>
       </c>
@@ -6010,7 +6001,7 @@
         <v>99.578999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:9">
       <c r="A26" s="30" t="s">
         <v>35</v>
       </c>
@@ -6035,7 +6026,7 @@
         <v>156.11000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:9">
       <c r="A27" s="30" t="s">
         <v>36</v>
       </c>
@@ -6060,7 +6051,7 @@
         <v>107.764</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:9">
       <c r="A28" s="30" t="s">
         <v>37</v>
       </c>
@@ -6085,7 +6076,7 @@
         <v>106.78700000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:9">
       <c r="A29" s="30" t="s">
         <v>38</v>
       </c>
@@ -6110,7 +6101,7 @@
         <v>127.191</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:9">
       <c r="A30" s="30" t="s">
         <v>39</v>
       </c>
@@ -6135,7 +6126,7 @@
         <v>156.33000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:9">
       <c r="A31" s="30" t="s">
         <v>40</v>
       </c>
@@ -6159,11 +6150,8 @@
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>128.45099999999999</v>
       </c>
-      <c r="L31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="30" t="s">
         <v>41</v>
       </c>
@@ -6187,9 +6175,6 @@
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
         <v>183.58</v>
       </c>
-      <c r="L32" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="30" t="s">
@@ -6246,7 +6231,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="32">
         <v>0</v>
@@ -6314,7 +6299,7 @@
         <v>146</v>
       </c>
       <c r="H38" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1">
@@ -6895,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="6">
         <v>6.585</v>
@@ -6920,7 +6905,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" s="6">
         <v>-15.856999999999999</v>
@@ -6945,7 +6930,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" s="6">
         <v>33.917999999999999</v>
@@ -6970,7 +6955,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" s="6">
         <v>-14.363</v>
@@ -6995,7 +6980,7 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C67" s="6">
         <v>18.079999999999998</v>
@@ -7020,7 +7005,7 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" s="6">
         <v>-11.029</v>
@@ -7045,7 +7030,7 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" s="6">
         <v>924544</v>
@@ -7070,7 +7055,7 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C70" s="6">
         <v>923177</v>
@@ -7095,7 +7080,7 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" s="6">
         <v>317.81</v>
@@ -7120,7 +7105,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C72" s="6">
         <v>328.98</v>
@@ -7145,7 +7130,7 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" s="6">
         <v>147.85</v>
@@ -7170,7 +7155,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" s="6">
         <v>348.07</v>
@@ -7195,7 +7180,7 @@
         <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C75" s="6">
         <v>17.748000000000001</v>
@@ -7220,7 +7205,7 @@
         <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" s="6">
         <v>-155.75</v>
@@ -7245,7 +7230,7 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="6">
         <v>-34.231000000000002</v>
@@ -7285,7 +7270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
